--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,15 @@
     <t>['44', '76']</t>
   </si>
   <si>
+    <t>['11', '16', '22', '59']</t>
+  </si>
+  <si>
+    <t>['47', '90+3']</t>
+  </si>
+  <si>
+    <t>['22', '71']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -593,6 +602,15 @@
   </si>
   <si>
     <t>['2', '42', '90']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1389,7 +1407,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1476,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>1.86</v>
@@ -1580,7 +1598,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1771,7 +1789,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1962,7 +1980,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2243,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2535,7 +2553,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2625,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2726,7 +2744,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2813,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT10">
         <v>2.5</v>
@@ -3108,7 +3126,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3299,7 +3317,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3386,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
         <v>2</v>
@@ -3490,7 +3508,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3681,7 +3699,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3872,7 +3890,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4063,7 +4081,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4254,7 +4272,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4445,7 +4463,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4636,7 +4654,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4723,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT20">
         <v>1.5</v>
@@ -4917,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5105,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0.95</v>
@@ -5400,7 +5418,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5490,7 +5508,7 @@
         <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU24">
         <v>1.88</v>
@@ -5591,7 +5609,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5678,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
         <v>1.57</v>
@@ -5973,7 +5991,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6164,7 +6182,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6251,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT28">
         <v>2</v>
@@ -6355,7 +6373,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6546,7 +6564,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6737,7 +6755,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7018,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU32">
         <v>0.9399999999999999</v>
@@ -7206,10 +7224,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.07</v>
@@ -7310,7 +7328,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7400,7 +7418,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU34">
         <v>1.3</v>
@@ -7501,7 +7519,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7692,7 +7710,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8074,7 +8092,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8161,7 +8179,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT38">
         <v>0.71</v>
@@ -8352,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8456,7 +8474,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8647,7 +8665,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8925,10 +8943,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9119,7 +9137,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.21</v>
@@ -9220,7 +9238,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9310,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU44">
         <v>1.48</v>
@@ -9411,7 +9429,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9602,7 +9620,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9793,7 +9811,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9984,7 +10002,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10175,7 +10193,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10262,7 +10280,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
         <v>1.5</v>
@@ -10557,7 +10575,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10835,7 +10853,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT52">
         <v>0.71</v>
@@ -11026,10 +11044,10 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT53">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU53">
         <v>1.63</v>
@@ -11321,7 +11339,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11411,7 +11429,7 @@
         <v>1.29</v>
       </c>
       <c r="AT55">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU55">
         <v>0.96</v>
@@ -11512,7 +11530,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11703,7 +11721,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11894,7 +11912,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -11984,7 +12002,7 @@
         <v>1.17</v>
       </c>
       <c r="AT58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.08</v>
@@ -12085,7 +12103,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12276,7 +12294,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12363,7 +12381,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -12467,7 +12485,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12658,7 +12676,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12849,7 +12867,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -12936,7 +12954,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13040,7 +13058,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13130,7 +13148,7 @@
         <v>0.57</v>
       </c>
       <c r="AT64">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU64">
         <v>1.17</v>
@@ -13318,7 +13336,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT65">
         <v>1.5</v>
@@ -13422,7 +13440,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13613,7 +13631,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13995,7 +14013,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14377,7 +14395,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14464,10 +14482,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14568,7 +14586,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14655,7 +14673,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
         <v>2.5</v>
@@ -14950,7 +14968,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15141,7 +15159,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15332,7 +15350,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15422,7 +15440,7 @@
         <v>0.57</v>
       </c>
       <c r="AT76">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.14</v>
@@ -15613,7 +15631,7 @@
         <v>1.29</v>
       </c>
       <c r="AT77">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -15714,7 +15732,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15801,7 +15819,7 @@
         <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT78">
         <v>1.57</v>
@@ -15905,7 +15923,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16096,7 +16114,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16478,7 +16496,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16620,6 +16638,579 @@
       </c>
       <c r="BK82">
         <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3045599</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44864.4375</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>140</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>5</v>
+      </c>
+      <c r="S83">
+        <v>11</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>1.63</v>
+      </c>
+      <c r="AD83">
+        <v>4.1</v>
+      </c>
+      <c r="AE83">
+        <v>4.35</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>1.55</v>
+      </c>
+      <c r="AK83">
+        <v>2.3</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>1.57</v>
+      </c>
+      <c r="AR83">
+        <v>1.67</v>
+      </c>
+      <c r="AS83">
+        <v>1.75</v>
+      </c>
+      <c r="AT83">
+        <v>1.43</v>
+      </c>
+      <c r="AU83">
+        <v>1.4</v>
+      </c>
+      <c r="AV83">
+        <v>1.22</v>
+      </c>
+      <c r="AW83">
+        <v>2.62</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>5</v>
+      </c>
+      <c r="BG83">
+        <v>5</v>
+      </c>
+      <c r="BH83">
+        <v>5</v>
+      </c>
+      <c r="BI83">
+        <v>2</v>
+      </c>
+      <c r="BJ83">
+        <v>10</v>
+      </c>
+      <c r="BK83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3045600</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44864.4375</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>141</v>
+      </c>
+      <c r="P84" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q84">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>1.57</v>
+      </c>
+      <c r="AD84">
+        <v>4.35</v>
+      </c>
+      <c r="AE84">
+        <v>4.6</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>1.6</v>
+      </c>
+      <c r="AK84">
+        <v>2.28</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>1.33</v>
+      </c>
+      <c r="AR84">
+        <v>1.17</v>
+      </c>
+      <c r="AS84">
+        <v>1.57</v>
+      </c>
+      <c r="AT84">
+        <v>1</v>
+      </c>
+      <c r="AU84">
+        <v>1.44</v>
+      </c>
+      <c r="AV84">
+        <v>1.13</v>
+      </c>
+      <c r="AW84">
+        <v>2.57</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>8</v>
+      </c>
+      <c r="BG84">
+        <v>2</v>
+      </c>
+      <c r="BH84">
+        <v>11</v>
+      </c>
+      <c r="BI84">
+        <v>5</v>
+      </c>
+      <c r="BJ84">
+        <v>19</v>
+      </c>
+      <c r="BK84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3045601</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>142</v>
+      </c>
+      <c r="P85" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q85">
+        <v>9</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>12</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>1.38</v>
+      </c>
+      <c r="AD85">
+        <v>4.5</v>
+      </c>
+      <c r="AE85">
+        <v>7.5</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>1.7</v>
+      </c>
+      <c r="AK85">
+        <v>2.08</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>2.29</v>
+      </c>
+      <c r="AR85">
+        <v>0.71</v>
+      </c>
+      <c r="AS85">
+        <v>2.38</v>
+      </c>
+      <c r="AT85">
+        <v>0.63</v>
+      </c>
+      <c r="AU85">
+        <v>1.7</v>
+      </c>
+      <c r="AV85">
+        <v>0.98</v>
+      </c>
+      <c r="AW85">
+        <v>2.68</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>10</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>7</v>
+      </c>
+      <c r="BI85">
+        <v>3</v>
+      </c>
+      <c r="BJ85">
+        <v>17</v>
+      </c>
+      <c r="BK85">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,15 +397,15 @@
     <t>['17', '37']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['14', '27', '37']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['90+2']</t>
   </si>
   <si>
@@ -430,21 +430,42 @@
     <t>['36', '66', '90+6']</t>
   </si>
   <si>
+    <t>['44', '76']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
-    <t>['44', '76']</t>
+    <t>['47', '90+3']</t>
   </si>
   <si>
     <t>['11', '16', '22', '59']</t>
   </si>
   <si>
-    <t>['47', '90+3']</t>
-  </si>
-  <si>
     <t>['22', '71']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['30', '78']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['36', '38']</t>
+  </si>
+  <si>
+    <t>['8', '45+6', '51']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -481,9 +502,6 @@
     <t>['90+2', '90+7']</t>
   </si>
   <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -571,12 +589,12 @@
     <t>['4', '16']</t>
   </si>
   <si>
+    <t>['15', '72', '78']</t>
+  </si>
+  <si>
     <t>['48', '90+2']</t>
   </si>
   <si>
-    <t>['15', '72', '78']</t>
-  </si>
-  <si>
     <t>['25', '90']</t>
   </si>
   <si>
@@ -595,22 +613,37 @@
     <t>['61', '83']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['59', '90+2', '90+10']</t>
   </si>
   <si>
     <t>['2', '42', '90']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['17', '42']</t>
+  </si>
+  <si>
+    <t>['52', '73']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['16', '88']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1339,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1407,7 +1440,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1494,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>1.67</v>
+      </c>
+      <c r="AT3">
         <v>1.75</v>
-      </c>
-      <c r="AT3">
-        <v>1.86</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1598,7 +1631,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1685,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1789,7 +1822,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1876,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>1.5</v>
@@ -1980,7 +2013,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2067,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2258,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2449,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT8">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2553,7 +2586,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2643,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2744,7 +2777,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2834,7 +2867,7 @@
         <v>2.38</v>
       </c>
       <c r="AT10">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3022,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -3126,7 +3159,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3213,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3317,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3404,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3508,7 +3541,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3595,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU14">
         <v>1.08</v>
@@ -3699,7 +3732,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3786,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU15">
         <v>1.02</v>
@@ -3890,7 +3923,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3977,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT16">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU16">
         <v>1.21</v>
@@ -4081,7 +4114,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4168,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU17">
         <v>1.93</v>
@@ -4272,7 +4305,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4362,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0.7</v>
@@ -4463,7 +4496,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4550,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4654,7 +4687,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4741,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT20">
         <v>1.5</v>
@@ -4932,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5126,7 +5159,7 @@
         <v>2.38</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU22">
         <v>0.95</v>
@@ -5314,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -5418,7 +5451,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5508,7 +5541,7 @@
         <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU24">
         <v>1.88</v>
@@ -5609,7 +5642,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5696,10 +5729,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
+        <v>1.67</v>
+      </c>
+      <c r="AT25">
         <v>1.75</v>
-      </c>
-      <c r="AT25">
-        <v>1.57</v>
       </c>
       <c r="AU25">
         <v>1.02</v>
@@ -5890,7 +5923,7 @@
         <v>2.25</v>
       </c>
       <c r="AT26">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU26">
         <v>1.53</v>
@@ -5991,7 +6024,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6081,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1</v>
@@ -6182,7 +6215,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6272,7 +6305,7 @@
         <v>2.38</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU28">
         <v>1.12</v>
@@ -6373,7 +6406,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6460,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT29">
         <v>1.5</v>
@@ -6564,7 +6597,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6651,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -6755,7 +6788,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6842,10 +6875,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU31">
         <v>0.9</v>
@@ -7033,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT32">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU32">
         <v>0.9399999999999999</v>
@@ -7224,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU33">
         <v>1.07</v>
@@ -7328,7 +7361,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7415,10 +7448,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU34">
         <v>1.3</v>
@@ -7519,7 +7552,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7606,10 +7639,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT35">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU35">
         <v>1.49</v>
@@ -7710,7 +7743,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7797,10 +7830,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU36">
         <v>1.71</v>
@@ -8092,7 +8125,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8179,10 +8212,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU38">
         <v>1.63</v>
@@ -8474,7 +8507,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8564,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU40">
         <v>1.19</v>
@@ -8665,7 +8698,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8752,10 +8785,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT41">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU41">
         <v>1.13</v>
@@ -8943,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9134,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU43">
         <v>1.21</v>
@@ -9238,7 +9271,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9325,10 +9358,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU44">
         <v>1.48</v>
@@ -9429,7 +9462,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9516,10 +9549,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT45">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU45">
         <v>1.09</v>
@@ -9620,7 +9653,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9707,10 +9740,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU46">
         <v>0.84</v>
@@ -9811,7 +9844,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9898,10 +9931,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT47">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU47">
         <v>1.04</v>
@@ -10002,7 +10035,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10089,10 +10122,10 @@
         <v>1.67</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU48">
         <v>1.4</v>
@@ -10193,7 +10226,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10280,7 +10313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
         <v>1.5</v>
@@ -10471,7 +10504,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT50">
         <v>0.5</v>
@@ -10575,7 +10608,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10665,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU51">
         <v>1.12</v>
@@ -10856,7 +10889,7 @@
         <v>2.38</v>
       </c>
       <c r="AT52">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.62</v>
@@ -11044,10 +11077,10 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT53">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU53">
         <v>1.63</v>
@@ -11238,7 +11271,7 @@
         <v>2.25</v>
       </c>
       <c r="AT54">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU54">
         <v>1.87</v>
@@ -11339,7 +11372,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11426,10 +11459,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU55">
         <v>0.96</v>
@@ -11530,7 +11563,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11617,10 +11650,10 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU56">
         <v>1.25</v>
@@ -11721,7 +11754,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11811,7 +11844,7 @@
         <v>2.25</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU57">
         <v>1.95</v>
@@ -11912,7 +11945,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -11999,10 +12032,10 @@
         <v>0.25</v>
       </c>
       <c r="AS58">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU58">
         <v>1.08</v>
@@ -12103,7 +12136,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12190,10 +12223,10 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT59">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU59">
         <v>0.95</v>
@@ -12294,7 +12327,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12381,10 +12414,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12485,7 +12518,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12572,10 +12605,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.27</v>
@@ -12676,7 +12709,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12766,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU62">
         <v>1.1</v>
@@ -12867,7 +12900,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -12954,7 +12987,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13058,7 +13091,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13145,10 +13178,10 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT64">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU64">
         <v>1.17</v>
@@ -13440,7 +13473,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13527,10 +13560,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT66">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13589,7 +13622,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3045591</v>
+        <v>3045589</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -13604,43 +13637,43 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O67" t="s">
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="Q67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S67">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -13670,13 +13703,13 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="AD67">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AE67">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -13691,10 +13724,10 @@
         <v>0</v>
       </c>
       <c r="AJ67">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AK67">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="AL67">
         <v>0</v>
@@ -13712,25 +13745,25 @@
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>0.71</v>
+        <v>1.75</v>
       </c>
       <c r="AU67">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AV67">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="AW67">
-        <v>2.24</v>
+        <v>2.41</v>
       </c>
       <c r="AX67">
         <v>0</v>
@@ -13757,22 +13790,22 @@
         <v>0</v>
       </c>
       <c r="BF67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI67">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BJ67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BK67">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:63">
@@ -13780,7 +13813,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3045589</v>
+        <v>3045588</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -13795,43 +13828,43 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O68" t="s">
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R68">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S68">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -13861,13 +13894,13 @@
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AD68">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE68">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -13882,10 +13915,10 @@
         <v>0</v>
       </c>
       <c r="AJ68">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AK68">
-        <v>2.2</v>
+        <v>2.39</v>
       </c>
       <c r="AL68">
         <v>0</v>
@@ -13903,25 +13936,25 @@
         <v>0</v>
       </c>
       <c r="AQ68">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="AT68">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AU68">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AV68">
-        <v>1.25</v>
+        <v>0.87</v>
       </c>
       <c r="AW68">
-        <v>2.41</v>
+        <v>2.13</v>
       </c>
       <c r="AX68">
         <v>0</v>
@@ -13948,22 +13981,22 @@
         <v>0</v>
       </c>
       <c r="BF68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG68">
+        <v>3</v>
+      </c>
+      <c r="BH68">
         <v>6</v>
       </c>
-      <c r="BH68">
-        <v>2</v>
-      </c>
       <c r="BI68">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BJ68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK68">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:63">
@@ -13971,7 +14004,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3045588</v>
+        <v>3045591</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -13986,40 +14019,40 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S69">
         <v>8</v>
@@ -14052,13 +14085,13 @@
         <v>0</v>
       </c>
       <c r="AC69">
+        <v>1.8</v>
+      </c>
+      <c r="AD69">
         <v>3.55</v>
       </c>
-      <c r="AD69">
-        <v>3.6</v>
-      </c>
       <c r="AE69">
-        <v>1.76</v>
+        <v>3.5</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -14073,10 +14106,10 @@
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AK69">
-        <v>2.39</v>
+        <v>2.13</v>
       </c>
       <c r="AL69">
         <v>0</v>
@@ -14094,25 +14127,25 @@
         <v>0</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.8</v>
+        <v>0.83</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AU69">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AV69">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="AW69">
-        <v>2.13</v>
+        <v>2.24</v>
       </c>
       <c r="AX69">
         <v>0</v>
@@ -14139,19 +14172,19 @@
         <v>0</v>
       </c>
       <c r="BF69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ69">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BK69">
         <v>8</v>
@@ -14395,7 +14428,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14485,7 +14518,7 @@
         <v>2.38</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14586,7 +14619,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14673,10 +14706,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14867,7 +14900,7 @@
         <v>2.25</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU73">
         <v>2.01</v>
@@ -14968,7 +15001,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15055,10 +15088,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT74">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU74">
         <v>1.67</v>
@@ -15159,7 +15192,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15246,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT75">
         <v>1.5</v>
@@ -15350,7 +15383,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15437,10 +15470,10 @@
         <v>0.8</v>
       </c>
       <c r="AS76">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU76">
         <v>1.14</v>
@@ -15628,10 +15661,10 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -15732,7 +15765,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15819,10 +15852,10 @@
         <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU78">
         <v>1.42</v>
@@ -15923,7 +15956,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16010,7 +16043,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
         <v>0.5</v>
@@ -16114,7 +16147,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16201,10 +16234,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU80">
         <v>1</v>
@@ -16263,7 +16296,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3045598</v>
+        <v>3045602</v>
       </c>
       <c r="C81" t="s">
         <v>63</v>
@@ -16278,175 +16311,175 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O81" t="s">
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="Q81">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R81">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>1.8</v>
+      </c>
+      <c r="AD81">
+        <v>3.7</v>
+      </c>
+      <c r="AE81">
+        <v>3.7</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>1.5</v>
+      </c>
+      <c r="AK81">
+        <v>2.4</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>1.17</v>
+      </c>
+      <c r="AR81">
+        <v>1.29</v>
+      </c>
+      <c r="AS81">
+        <v>0.88</v>
+      </c>
+      <c r="AT81">
+        <v>1.5</v>
+      </c>
+      <c r="AU81">
+        <v>1.31</v>
+      </c>
+      <c r="AV81">
+        <v>1.3</v>
+      </c>
+      <c r="AW81">
+        <v>2.61</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
         <v>3</v>
-      </c>
-      <c r="S81">
-        <v>10</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>1.14</v>
-      </c>
-      <c r="AD81">
-        <v>6.5</v>
-      </c>
-      <c r="AE81">
-        <v>15</v>
-      </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-      <c r="AJ81">
-        <v>1.36</v>
-      </c>
-      <c r="AK81">
-        <v>2.9</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AN81">
-        <v>0</v>
-      </c>
-      <c r="AO81">
-        <v>0</v>
-      </c>
-      <c r="AP81">
-        <v>0</v>
-      </c>
-      <c r="AQ81">
-        <v>2.14</v>
-      </c>
-      <c r="AR81">
-        <v>0.57</v>
-      </c>
-      <c r="AS81">
-        <v>2.25</v>
-      </c>
-      <c r="AT81">
-        <v>0.5</v>
-      </c>
-      <c r="AU81">
-        <v>1.87</v>
-      </c>
-      <c r="AV81">
-        <v>0.93</v>
-      </c>
-      <c r="AW81">
-        <v>2.8</v>
-      </c>
-      <c r="AX81">
-        <v>0</v>
-      </c>
-      <c r="AY81">
-        <v>0</v>
-      </c>
-      <c r="AZ81">
-        <v>0</v>
-      </c>
-      <c r="BA81">
-        <v>0</v>
-      </c>
-      <c r="BB81">
-        <v>0</v>
-      </c>
-      <c r="BC81">
-        <v>0</v>
-      </c>
-      <c r="BD81">
-        <v>0</v>
-      </c>
-      <c r="BE81">
-        <v>0</v>
-      </c>
-      <c r="BF81">
-        <v>6</v>
       </c>
       <c r="BG81">
         <v>5</v>
       </c>
       <c r="BH81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ81">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK81">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:63">
@@ -16454,7 +16487,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3045602</v>
+        <v>3045598</v>
       </c>
       <c r="C82" t="s">
         <v>63</v>
@@ -16469,175 +16502,175 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>10</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>1.14</v>
+      </c>
+      <c r="AD82">
+        <v>6.5</v>
+      </c>
+      <c r="AE82">
+        <v>15</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>1.36</v>
+      </c>
+      <c r="AK82">
+        <v>2.9</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>2.14</v>
+      </c>
+      <c r="AR82">
+        <v>0.57</v>
+      </c>
+      <c r="AS82">
+        <v>2.25</v>
+      </c>
+      <c r="AT82">
+        <v>0.5</v>
+      </c>
+      <c r="AU82">
+        <v>1.87</v>
+      </c>
+      <c r="AV82">
+        <v>0.93</v>
+      </c>
+      <c r="AW82">
+        <v>2.8</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
         <v>6</v>
-      </c>
-      <c r="S82">
-        <v>8</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>1.8</v>
-      </c>
-      <c r="AD82">
-        <v>3.7</v>
-      </c>
-      <c r="AE82">
-        <v>3.7</v>
-      </c>
-      <c r="AF82">
-        <v>0</v>
-      </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-      <c r="AI82">
-        <v>0</v>
-      </c>
-      <c r="AJ82">
-        <v>1.5</v>
-      </c>
-      <c r="AK82">
-        <v>2.4</v>
-      </c>
-      <c r="AL82">
-        <v>0</v>
-      </c>
-      <c r="AM82">
-        <v>0</v>
-      </c>
-      <c r="AN82">
-        <v>0</v>
-      </c>
-      <c r="AO82">
-        <v>0</v>
-      </c>
-      <c r="AP82">
-        <v>0</v>
-      </c>
-      <c r="AQ82">
-        <v>1.17</v>
-      </c>
-      <c r="AR82">
-        <v>1.29</v>
-      </c>
-      <c r="AS82">
-        <v>1</v>
-      </c>
-      <c r="AT82">
-        <v>1.5</v>
-      </c>
-      <c r="AU82">
-        <v>1.31</v>
-      </c>
-      <c r="AV82">
-        <v>1.3</v>
-      </c>
-      <c r="AW82">
-        <v>2.61</v>
-      </c>
-      <c r="AX82">
-        <v>0</v>
-      </c>
-      <c r="AY82">
-        <v>0</v>
-      </c>
-      <c r="AZ82">
-        <v>0</v>
-      </c>
-      <c r="BA82">
-        <v>0</v>
-      </c>
-      <c r="BB82">
-        <v>0</v>
-      </c>
-      <c r="BC82">
-        <v>0</v>
-      </c>
-      <c r="BD82">
-        <v>0</v>
-      </c>
-      <c r="BE82">
-        <v>0</v>
-      </c>
-      <c r="BF82">
-        <v>3</v>
       </c>
       <c r="BG82">
         <v>5</v>
       </c>
       <c r="BH82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ82">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK82">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:63">
@@ -16645,7 +16678,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3045599</v>
+        <v>3045600</v>
       </c>
       <c r="C83" t="s">
         <v>63</v>
@@ -16660,172 +16693,172 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H83" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
         <v>3</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
-      </c>
-      <c r="L83">
-        <v>4</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>5</v>
       </c>
       <c r="O83" t="s">
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>1.57</v>
+      </c>
+      <c r="AD83">
+        <v>4.35</v>
+      </c>
+      <c r="AE83">
+        <v>4.6</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>1.6</v>
+      </c>
+      <c r="AK83">
+        <v>2.28</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>1.33</v>
+      </c>
+      <c r="AR83">
+        <v>1.17</v>
+      </c>
+      <c r="AS83">
+        <v>1.38</v>
+      </c>
+      <c r="AT83">
+        <v>0.88</v>
+      </c>
+      <c r="AU83">
+        <v>1.44</v>
+      </c>
+      <c r="AV83">
+        <v>1.13</v>
+      </c>
+      <c r="AW83">
+        <v>2.57</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>8</v>
+      </c>
+      <c r="BG83">
+        <v>2</v>
+      </c>
+      <c r="BH83">
+        <v>11</v>
+      </c>
+      <c r="BI83">
         <v>5</v>
       </c>
-      <c r="S83">
-        <v>11</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>1.63</v>
-      </c>
-      <c r="AD83">
-        <v>4.1</v>
-      </c>
-      <c r="AE83">
-        <v>4.35</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-      <c r="AI83">
-        <v>0</v>
-      </c>
-      <c r="AJ83">
-        <v>1.55</v>
-      </c>
-      <c r="AK83">
-        <v>2.3</v>
-      </c>
-      <c r="AL83">
-        <v>0</v>
-      </c>
-      <c r="AM83">
-        <v>0</v>
-      </c>
-      <c r="AN83">
-        <v>0</v>
-      </c>
-      <c r="AO83">
-        <v>0</v>
-      </c>
-      <c r="AP83">
-        <v>0</v>
-      </c>
-      <c r="AQ83">
-        <v>1.57</v>
-      </c>
-      <c r="AR83">
-        <v>1.67</v>
-      </c>
-      <c r="AS83">
-        <v>1.75</v>
-      </c>
-      <c r="AT83">
-        <v>1.43</v>
-      </c>
-      <c r="AU83">
-        <v>1.4</v>
-      </c>
-      <c r="AV83">
-        <v>1.22</v>
-      </c>
-      <c r="AW83">
-        <v>2.62</v>
-      </c>
-      <c r="AX83">
-        <v>0</v>
-      </c>
-      <c r="AY83">
-        <v>0</v>
-      </c>
-      <c r="AZ83">
-        <v>0</v>
-      </c>
-      <c r="BA83">
-        <v>0</v>
-      </c>
-      <c r="BB83">
-        <v>0</v>
-      </c>
-      <c r="BC83">
-        <v>0</v>
-      </c>
-      <c r="BD83">
-        <v>0</v>
-      </c>
-      <c r="BE83">
-        <v>0</v>
-      </c>
-      <c r="BF83">
-        <v>5</v>
-      </c>
-      <c r="BG83">
-        <v>5</v>
-      </c>
-      <c r="BH83">
-        <v>5</v>
-      </c>
-      <c r="BI83">
-        <v>2</v>
-      </c>
       <c r="BJ83">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BK83">
         <v>7</v>
@@ -16836,7 +16869,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3045600</v>
+        <v>3045599</v>
       </c>
       <c r="C84" t="s">
         <v>63</v>
@@ -16851,43 +16884,43 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O84" t="s">
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -16917,67 +16950,67 @@
         <v>0</v>
       </c>
       <c r="AC84">
+        <v>1.63</v>
+      </c>
+      <c r="AD84">
+        <v>4.1</v>
+      </c>
+      <c r="AE84">
+        <v>4.35</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <v>1.55</v>
+      </c>
+      <c r="AK84">
+        <v>2.3</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
         <v>1.57</v>
       </c>
-      <c r="AD84">
-        <v>4.35</v>
-      </c>
-      <c r="AE84">
-        <v>4.6</v>
-      </c>
-      <c r="AF84">
-        <v>0</v>
-      </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-      <c r="AI84">
-        <v>0</v>
-      </c>
-      <c r="AJ84">
-        <v>1.6</v>
-      </c>
-      <c r="AK84">
-        <v>2.28</v>
-      </c>
-      <c r="AL84">
-        <v>0</v>
-      </c>
-      <c r="AM84">
-        <v>0</v>
-      </c>
-      <c r="AN84">
-        <v>0</v>
-      </c>
-      <c r="AO84">
-        <v>0</v>
-      </c>
-      <c r="AP84">
-        <v>0</v>
-      </c>
-      <c r="AQ84">
-        <v>1.33</v>
-      </c>
       <c r="AR84">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AS84">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AU84">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AV84">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AW84">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AX84">
         <v>0</v>
@@ -17004,19 +17037,19 @@
         <v>0</v>
       </c>
       <c r="BF84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH84">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BI84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ84">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BK84">
         <v>7</v>
@@ -17069,7 +17102,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17159,7 +17192,7 @@
         <v>2.38</v>
       </c>
       <c r="AT85">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU85">
         <v>1.7</v>
@@ -17211,6 +17244,2298 @@
       </c>
       <c r="BK85">
         <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3045604</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>143</v>
+      </c>
+      <c r="P86" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>11</v>
+      </c>
+      <c r="S86">
+        <v>15</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>5.45</v>
+      </c>
+      <c r="AD86">
+        <v>4.7</v>
+      </c>
+      <c r="AE86">
+        <v>1.51</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>1.44</v>
+      </c>
+      <c r="AK86">
+        <v>2.75</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0.57</v>
+      </c>
+      <c r="AR86">
+        <v>2.5</v>
+      </c>
+      <c r="AS86">
+        <v>0.5</v>
+      </c>
+      <c r="AT86">
+        <v>2.63</v>
+      </c>
+      <c r="AU86">
+        <v>1.15</v>
+      </c>
+      <c r="AV86">
+        <v>1.47</v>
+      </c>
+      <c r="AW86">
+        <v>2.62</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>5</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>6</v>
+      </c>
+      <c r="BJ86">
+        <v>9</v>
+      </c>
+      <c r="BK86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3045606</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>144</v>
+      </c>
+      <c r="P87" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="R87">
+        <v>12</v>
+      </c>
+      <c r="S87">
+        <v>17</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>2.65</v>
+      </c>
+      <c r="AD87">
+        <v>3.5</v>
+      </c>
+      <c r="AE87">
+        <v>2.51</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>1.81</v>
+      </c>
+      <c r="AK87">
+        <v>2.01</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>1.17</v>
+      </c>
+      <c r="AR87">
+        <v>1.86</v>
+      </c>
+      <c r="AS87">
+        <v>1.14</v>
+      </c>
+      <c r="AT87">
+        <v>1.75</v>
+      </c>
+      <c r="AU87">
+        <v>1.09</v>
+      </c>
+      <c r="AV87">
+        <v>1.32</v>
+      </c>
+      <c r="AW87">
+        <v>2.41</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>2</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>8</v>
+      </c>
+      <c r="BI87">
+        <v>8</v>
+      </c>
+      <c r="BJ87">
+        <v>10</v>
+      </c>
+      <c r="BK87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3045608</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44870.54166666666</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q88">
+        <v>6</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>2.38</v>
+      </c>
+      <c r="AD88">
+        <v>3.74</v>
+      </c>
+      <c r="AE88">
+        <v>2.67</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>1.63</v>
+      </c>
+      <c r="AK88">
+        <v>2.23</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>0.71</v>
+      </c>
+      <c r="AS88">
+        <v>0.88</v>
+      </c>
+      <c r="AT88">
+        <v>0.75</v>
+      </c>
+      <c r="AU88">
+        <v>0.93</v>
+      </c>
+      <c r="AV88">
+        <v>1.08</v>
+      </c>
+      <c r="AW88">
+        <v>2.01</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>6</v>
+      </c>
+      <c r="BG88">
+        <v>3</v>
+      </c>
+      <c r="BH88">
+        <v>4</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>10</v>
+      </c>
+      <c r="BK88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3045607</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44871.4375</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>107</v>
+      </c>
+      <c r="P89" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89">
+        <v>8</v>
+      </c>
+      <c r="S89">
+        <v>13</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>4.67</v>
+      </c>
+      <c r="AD89">
+        <v>4.01</v>
+      </c>
+      <c r="AE89">
+        <v>1.54</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>1.7</v>
+      </c>
+      <c r="AK89">
+        <v>2</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>2</v>
+      </c>
+      <c r="AS89">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>1.75</v>
+      </c>
+      <c r="AU89">
+        <v>1.15</v>
+      </c>
+      <c r="AV89">
+        <v>1.34</v>
+      </c>
+      <c r="AW89">
+        <v>2.49</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>0</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>0</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>3</v>
+      </c>
+      <c r="BG89">
+        <v>8</v>
+      </c>
+      <c r="BH89">
+        <v>6</v>
+      </c>
+      <c r="BI89">
+        <v>4</v>
+      </c>
+      <c r="BJ89">
+        <v>9</v>
+      </c>
+      <c r="BK89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3045609</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44871.4375</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>87</v>
+      </c>
+      <c r="P90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+      <c r="R90">
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>11</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>3.14</v>
+      </c>
+      <c r="AD90">
+        <v>3.69</v>
+      </c>
+      <c r="AE90">
+        <v>1.9</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>1.53</v>
+      </c>
+      <c r="AK90">
+        <v>2.35</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>1.33</v>
+      </c>
+      <c r="AR90">
+        <v>1.57</v>
+      </c>
+      <c r="AS90">
+        <v>1.5</v>
+      </c>
+      <c r="AT90">
+        <v>1.5</v>
+      </c>
+      <c r="AU90">
+        <v>1.14</v>
+      </c>
+      <c r="AV90">
+        <v>1.03</v>
+      </c>
+      <c r="AW90">
+        <v>2.17</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>0</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>6</v>
+      </c>
+      <c r="BG90">
+        <v>5</v>
+      </c>
+      <c r="BH90">
+        <v>7</v>
+      </c>
+      <c r="BI90">
+        <v>5</v>
+      </c>
+      <c r="BJ90">
+        <v>13</v>
+      </c>
+      <c r="BK90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3045605</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>66</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>120</v>
+      </c>
+      <c r="P91" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>11</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>2.37</v>
+      </c>
+      <c r="AD91">
+        <v>3.75</v>
+      </c>
+      <c r="AE91">
+        <v>2.56</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>1.62</v>
+      </c>
+      <c r="AK91">
+        <v>2.2</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>2</v>
+      </c>
+      <c r="AS91">
+        <v>1.25</v>
+      </c>
+      <c r="AT91">
+        <v>1.71</v>
+      </c>
+      <c r="AU91">
+        <v>1.74</v>
+      </c>
+      <c r="AV91">
+        <v>0.9</v>
+      </c>
+      <c r="AW91">
+        <v>2.64</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>0</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>6</v>
+      </c>
+      <c r="BG91">
+        <v>3</v>
+      </c>
+      <c r="BH91">
+        <v>6</v>
+      </c>
+      <c r="BI91">
+        <v>9</v>
+      </c>
+      <c r="BJ91">
+        <v>12</v>
+      </c>
+      <c r="BK91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3045615</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44877.54166666666</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>146</v>
+      </c>
+      <c r="P92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>7</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>2</v>
+      </c>
+      <c r="AD92">
+        <v>3.7</v>
+      </c>
+      <c r="AE92">
+        <v>3.4</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>1.65</v>
+      </c>
+      <c r="AK92">
+        <v>2.15</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>1.29</v>
+      </c>
+      <c r="AR92">
+        <v>0.63</v>
+      </c>
+      <c r="AS92">
+        <v>1.5</v>
+      </c>
+      <c r="AT92">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU92">
+        <v>1.21</v>
+      </c>
+      <c r="AV92">
+        <v>1</v>
+      </c>
+      <c r="AW92">
+        <v>2.21</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>4</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>6</v>
+      </c>
+      <c r="BI92">
+        <v>2</v>
+      </c>
+      <c r="BJ92">
+        <v>10</v>
+      </c>
+      <c r="BK92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3045613</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44877.54166666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>147</v>
+      </c>
+      <c r="P93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>5</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>2.3</v>
+      </c>
+      <c r="AD93">
+        <v>3.6</v>
+      </c>
+      <c r="AE93">
+        <v>2.88</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>1.7</v>
+      </c>
+      <c r="AK93">
+        <v>2.05</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>1.29</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
+      </c>
+      <c r="AS93">
+        <v>1.5</v>
+      </c>
+      <c r="AT93">
+        <v>0.88</v>
+      </c>
+      <c r="AU93">
+        <v>0.97</v>
+      </c>
+      <c r="AV93">
+        <v>1.07</v>
+      </c>
+      <c r="AW93">
+        <v>2.04</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>0</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>3</v>
+      </c>
+      <c r="BG93">
+        <v>9</v>
+      </c>
+      <c r="BH93">
+        <v>3</v>
+      </c>
+      <c r="BI93">
+        <v>5</v>
+      </c>
+      <c r="BJ93">
+        <v>6</v>
+      </c>
+      <c r="BK93">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3045614</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44877.54166666666</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" t="s">
+        <v>70</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>148</v>
+      </c>
+      <c r="P94" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q94">
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <v>5</v>
+      </c>
+      <c r="S94">
+        <v>11</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>4.33</v>
+      </c>
+      <c r="AD94">
+        <v>4</v>
+      </c>
+      <c r="AE94">
+        <v>1.73</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>1.57</v>
+      </c>
+      <c r="AK94">
+        <v>2.3</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1.57</v>
+      </c>
+      <c r="AS94">
+        <v>0.88</v>
+      </c>
+      <c r="AT94">
+        <v>1.75</v>
+      </c>
+      <c r="AU94">
+        <v>1</v>
+      </c>
+      <c r="AV94">
+        <v>1.52</v>
+      </c>
+      <c r="AW94">
+        <v>2.52</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>0</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>3</v>
+      </c>
+      <c r="BG94">
+        <v>4</v>
+      </c>
+      <c r="BH94">
+        <v>4</v>
+      </c>
+      <c r="BI94">
+        <v>6</v>
+      </c>
+      <c r="BJ94">
+        <v>7</v>
+      </c>
+      <c r="BK94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3045611</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44878.4375</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>87</v>
+      </c>
+      <c r="P95" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q95">
+        <v>12</v>
+      </c>
+      <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95">
+        <v>17</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>1.91</v>
+      </c>
+      <c r="AD95">
+        <v>4</v>
+      </c>
+      <c r="AE95">
+        <v>3.5</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>1.46</v>
+      </c>
+      <c r="AK95">
+        <v>2.42</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>1.57</v>
+      </c>
+      <c r="AR95">
+        <v>1.43</v>
+      </c>
+      <c r="AS95">
+        <v>1.38</v>
+      </c>
+      <c r="AT95">
+        <v>1.63</v>
+      </c>
+      <c r="AU95">
+        <v>1.56</v>
+      </c>
+      <c r="AV95">
+        <v>1.22</v>
+      </c>
+      <c r="AW95">
+        <v>2.78</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>4</v>
+      </c>
+      <c r="BG95">
+        <v>2</v>
+      </c>
+      <c r="BH95">
+        <v>12</v>
+      </c>
+      <c r="BI95">
+        <v>8</v>
+      </c>
+      <c r="BJ95">
+        <v>16</v>
+      </c>
+      <c r="BK95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3045612</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44878.4375</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>87</v>
+      </c>
+      <c r="P96" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>6</v>
+      </c>
+      <c r="S96">
+        <v>11</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>5.25</v>
+      </c>
+      <c r="AD96">
+        <v>4.75</v>
+      </c>
+      <c r="AE96">
+        <v>1.53</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>1.43</v>
+      </c>
+      <c r="AK96">
+        <v>2.51</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AR96">
+        <v>2.57</v>
+      </c>
+      <c r="AS96">
+        <v>0.88</v>
+      </c>
+      <c r="AT96">
+        <v>2.63</v>
+      </c>
+      <c r="AU96">
+        <v>1.27</v>
+      </c>
+      <c r="AV96">
+        <v>1.45</v>
+      </c>
+      <c r="AW96">
+        <v>2.72</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>2</v>
+      </c>
+      <c r="BG96">
+        <v>5</v>
+      </c>
+      <c r="BH96">
+        <v>8</v>
+      </c>
+      <c r="BI96">
+        <v>2</v>
+      </c>
+      <c r="BJ96">
+        <v>10</v>
+      </c>
+      <c r="BK96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3045610</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>149</v>
+      </c>
+      <c r="P97" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q97">
+        <v>5</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>2.34</v>
+      </c>
+      <c r="AD97">
+        <v>3.66</v>
+      </c>
+      <c r="AE97">
+        <v>2.8</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>1.59</v>
+      </c>
+      <c r="AK97">
+        <v>2.13</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>1.75</v>
+      </c>
+      <c r="AR97">
+        <v>1.86</v>
+      </c>
+      <c r="AS97">
+        <v>1.67</v>
+      </c>
+      <c r="AT97">
+        <v>1.75</v>
+      </c>
+      <c r="AU97">
+        <v>1.38</v>
+      </c>
+      <c r="AV97">
+        <v>1.39</v>
+      </c>
+      <c r="AW97">
+        <v>2.77</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>0</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>6</v>
+      </c>
+      <c r="BG97">
+        <v>2</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>3</v>
+      </c>
+      <c r="BJ97">
+        <v>11</v>
+      </c>
+      <c r="BK97">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,15 +466,21 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['48', '52', '76', '90+1']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['31', '49', '90+3']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
     <t>['43']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -644,6 +650,12 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['62', '70']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
         <v>1.5</v>
@@ -1440,7 +1452,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1530,7 +1542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1631,7 +1643,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1718,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT4">
         <v>1.75</v>
@@ -1822,7 +1834,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1912,7 +1924,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2013,7 +2025,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2482,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2586,7 +2598,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2673,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT9">
         <v>1.63</v>
@@ -2777,7 +2789,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2864,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT10">
         <v>2.63</v>
@@ -3058,7 +3070,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3159,7 +3171,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3249,7 +3261,7 @@
         <v>0.88</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3350,7 +3362,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3437,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3541,7 +3553,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3628,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>1.75</v>
@@ -3732,7 +3744,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3819,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT15">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU15">
         <v>1.02</v>
@@ -3923,7 +3935,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4114,7 +4126,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4204,7 +4216,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>1.93</v>
@@ -4305,7 +4317,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4392,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4496,7 +4508,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4586,7 +4598,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4774,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU20">
         <v>1.7</v>
@@ -5156,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT22">
         <v>0.88</v>
@@ -5350,7 +5362,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU23">
         <v>1.02</v>
@@ -5451,7 +5463,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5538,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT24">
         <v>1.63</v>
@@ -5642,7 +5654,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5732,7 +5744,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU25">
         <v>1.02</v>
@@ -5920,10 +5932,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT26">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU26">
         <v>1.53</v>
@@ -6024,7 +6036,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6111,10 +6123,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1</v>
@@ -6215,7 +6227,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6302,10 +6314,10 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU28">
         <v>1.12</v>
@@ -6406,7 +6418,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6493,10 +6505,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU29">
         <v>0.83</v>
@@ -6597,7 +6609,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6684,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT30">
         <v>1.5</v>
@@ -6788,7 +6800,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7361,7 +7373,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7552,7 +7564,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7743,7 +7755,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8021,10 +8033,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8125,7 +8137,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8212,10 +8224,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT38">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>1.63</v>
@@ -8403,10 +8415,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT39">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU39">
         <v>1.21</v>
@@ -8507,7 +8519,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8594,10 +8606,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU40">
         <v>1.19</v>
@@ -8698,7 +8710,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8785,10 +8797,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT41">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU41">
         <v>1.13</v>
@@ -9271,7 +9283,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9462,7 +9474,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9549,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT45">
         <v>2.63</v>
@@ -9653,7 +9665,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9743,7 +9755,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU46">
         <v>0.84</v>
@@ -9844,7 +9856,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10035,7 +10047,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10226,7 +10238,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10316,7 +10328,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU49">
         <v>1.4</v>
@@ -10504,10 +10516,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU50">
         <v>1.09</v>
@@ -10608,7 +10620,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10695,10 +10707,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU51">
         <v>1.12</v>
@@ -10886,10 +10898,10 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU52">
         <v>1.62</v>
@@ -11077,7 +11089,7 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT53">
         <v>0.5600000000000001</v>
@@ -11268,10 +11280,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU54">
         <v>1.87</v>
@@ -11372,7 +11384,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11563,7 +11575,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11653,7 +11665,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU56">
         <v>1.25</v>
@@ -11754,7 +11766,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11841,10 +11853,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU57">
         <v>1.95</v>
@@ -11945,7 +11957,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12032,7 +12044,7 @@
         <v>0.25</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT58">
         <v>0.88</v>
@@ -12136,7 +12148,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12226,7 +12238,7 @@
         <v>0.88</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU59">
         <v>0.95</v>
@@ -12327,7 +12339,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12414,7 +12426,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT60">
         <v>1.75</v>
@@ -12518,7 +12530,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12608,7 +12620,7 @@
         <v>0.88</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU61">
         <v>1.27</v>
@@ -12709,7 +12721,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12796,7 +12808,7 @@
         <v>2.25</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT62">
         <v>2.63</v>
@@ -12900,7 +12912,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -12990,7 +13002,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU63">
         <v>1.43</v>
@@ -13091,7 +13103,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13178,7 +13190,7 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT64">
         <v>0.5600000000000001</v>
@@ -13369,10 +13381,10 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU65">
         <v>1.69</v>
@@ -13473,7 +13485,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13751,10 +13763,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU67">
         <v>1.16</v>
@@ -13855,7 +13867,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13945,7 +13957,7 @@
         <v>0.88</v>
       </c>
       <c r="AT68">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14046,7 +14058,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14136,7 +14148,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU69">
         <v>1.17</v>
@@ -14324,10 +14336,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU70">
         <v>1.11</v>
@@ -14428,7 +14440,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14515,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT71">
         <v>1.63</v>
@@ -14619,7 +14631,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14706,7 +14718,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT72">
         <v>2.63</v>
@@ -14897,7 +14909,7 @@
         <v>2.2</v>
       </c>
       <c r="AS73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT73">
         <v>1.75</v>
@@ -15001,7 +15013,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15091,7 +15103,7 @@
         <v>1.25</v>
       </c>
       <c r="AT74">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU74">
         <v>1.67</v>
@@ -15192,7 +15204,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15282,7 +15294,7 @@
         <v>0.88</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU75">
         <v>0.9399999999999999</v>
@@ -15383,7 +15395,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15470,7 +15482,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT76">
         <v>0.88</v>
@@ -15765,7 +15777,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16046,7 +16058,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU79">
         <v>1.69</v>
@@ -16147,7 +16159,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16237,7 +16249,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU80">
         <v>1</v>
@@ -16338,7 +16350,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16428,7 +16440,7 @@
         <v>0.88</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU81">
         <v>1.31</v>
@@ -16616,10 +16628,10 @@
         <v>0.57</v>
       </c>
       <c r="AS82">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT82">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU82">
         <v>1.87</v>
@@ -16720,7 +16732,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16807,7 +16819,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT83">
         <v>0.88</v>
@@ -16911,7 +16923,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17102,7 +17114,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17189,7 +17201,7 @@
         <v>0.71</v>
       </c>
       <c r="AS85">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT85">
         <v>0.5600000000000001</v>
@@ -17293,7 +17305,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17380,7 +17392,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT86">
         <v>2.63</v>
@@ -17484,7 +17496,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17571,10 +17583,10 @@
         <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU87">
         <v>1.09</v>
@@ -17675,7 +17687,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17765,7 +17777,7 @@
         <v>0.88</v>
       </c>
       <c r="AT88">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU88">
         <v>0.93</v>
@@ -17866,7 +17878,7 @@
         <v>107</v>
       </c>
       <c r="P89" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17953,7 +17965,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT89">
         <v>1.75</v>
@@ -18338,7 +18350,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18821,7 +18833,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18911,7 +18923,7 @@
         <v>0.88</v>
       </c>
       <c r="AT94">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU94">
         <v>1</v>
@@ -19099,7 +19111,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
         <v>1.63</v>
@@ -19203,7 +19215,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19394,7 +19406,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19536,6 +19548,1152 @@
       </c>
       <c r="BK97">
         <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3045619</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44967.6875</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>112</v>
+      </c>
+      <c r="P98" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>4</v>
+      </c>
+      <c r="S98">
+        <v>8</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>1.74</v>
+      </c>
+      <c r="AD98">
+        <v>3.4</v>
+      </c>
+      <c r="AE98">
+        <v>3.9</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>1.7</v>
+      </c>
+      <c r="AK98">
+        <v>2.05</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>2.38</v>
+      </c>
+      <c r="AR98">
+        <v>1.75</v>
+      </c>
+      <c r="AS98">
+        <v>2.44</v>
+      </c>
+      <c r="AT98">
+        <v>1.56</v>
+      </c>
+      <c r="AU98">
+        <v>1.77</v>
+      </c>
+      <c r="AV98">
+        <v>1.49</v>
+      </c>
+      <c r="AW98">
+        <v>3.26</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>4</v>
+      </c>
+      <c r="BG98">
+        <v>2</v>
+      </c>
+      <c r="BH98">
+        <v>3</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>7</v>
+      </c>
+      <c r="BK98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3045616</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44968.54166666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>150</v>
+      </c>
+      <c r="P99" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q99">
+        <v>9</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>1.14</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>15</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>1.34</v>
+      </c>
+      <c r="AK99">
+        <v>2.83</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>2.25</v>
+      </c>
+      <c r="AR99">
+        <v>0.75</v>
+      </c>
+      <c r="AS99">
+        <v>2.33</v>
+      </c>
+      <c r="AT99">
+        <v>0.67</v>
+      </c>
+      <c r="AU99">
+        <v>1.86</v>
+      </c>
+      <c r="AV99">
+        <v>1.03</v>
+      </c>
+      <c r="AW99">
+        <v>2.89</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>0</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>5</v>
+      </c>
+      <c r="BG99">
+        <v>2</v>
+      </c>
+      <c r="BH99">
+        <v>6</v>
+      </c>
+      <c r="BI99">
+        <v>1</v>
+      </c>
+      <c r="BJ99">
+        <v>11</v>
+      </c>
+      <c r="BK99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3045617</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44968.54166666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>67</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>151</v>
+      </c>
+      <c r="P100" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>4</v>
+      </c>
+      <c r="S100">
+        <v>6</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>1.91</v>
+      </c>
+      <c r="AD100">
+        <v>3.8</v>
+      </c>
+      <c r="AE100">
+        <v>3.5</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>1.57</v>
+      </c>
+      <c r="AK100">
+        <v>2.3</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>0</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <v>0.5</v>
+      </c>
+      <c r="AR100">
+        <v>1.5</v>
+      </c>
+      <c r="AS100">
+        <v>0.44</v>
+      </c>
+      <c r="AT100">
+        <v>1.67</v>
+      </c>
+      <c r="AU100">
+        <v>1.17</v>
+      </c>
+      <c r="AV100">
+        <v>1.3</v>
+      </c>
+      <c r="AW100">
+        <v>2.47</v>
+      </c>
+      <c r="AX100">
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <v>0</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>2</v>
+      </c>
+      <c r="BI100">
+        <v>5</v>
+      </c>
+      <c r="BJ100">
+        <v>2</v>
+      </c>
+      <c r="BK100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3045620</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44969.4375</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>69</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>87</v>
+      </c>
+      <c r="P101" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>2.1</v>
+      </c>
+      <c r="AD101">
+        <v>3.5</v>
+      </c>
+      <c r="AE101">
+        <v>3.41</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>1.89</v>
+      </c>
+      <c r="AK101">
+        <v>1.85</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>1.14</v>
+      </c>
+      <c r="AR101">
+        <v>0.5</v>
+      </c>
+      <c r="AS101">
+        <v>1</v>
+      </c>
+      <c r="AT101">
+        <v>0.78</v>
+      </c>
+      <c r="AU101">
+        <v>1.07</v>
+      </c>
+      <c r="AV101">
+        <v>0.95</v>
+      </c>
+      <c r="AW101">
+        <v>2.02</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>0</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>6</v>
+      </c>
+      <c r="BG101">
+        <v>5</v>
+      </c>
+      <c r="BH101">
+        <v>4</v>
+      </c>
+      <c r="BI101">
+        <v>4</v>
+      </c>
+      <c r="BJ101">
+        <v>10</v>
+      </c>
+      <c r="BK101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3045621</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44969.4375</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>87</v>
+      </c>
+      <c r="P102" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>4</v>
+      </c>
+      <c r="S102">
+        <v>9</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>4.54</v>
+      </c>
+      <c r="AD102">
+        <v>3.95</v>
+      </c>
+      <c r="AE102">
+        <v>1.72</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>1.61</v>
+      </c>
+      <c r="AK102">
+        <v>2.23</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.71</v>
+      </c>
+      <c r="AS102">
+        <v>0.89</v>
+      </c>
+      <c r="AT102">
+        <v>1.88</v>
+      </c>
+      <c r="AU102">
+        <v>1.13</v>
+      </c>
+      <c r="AV102">
+        <v>0.95</v>
+      </c>
+      <c r="AW102">
+        <v>2.08</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>0</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>2</v>
+      </c>
+      <c r="BG102">
+        <v>2</v>
+      </c>
+      <c r="BH102">
+        <v>2</v>
+      </c>
+      <c r="BI102">
+        <v>2</v>
+      </c>
+      <c r="BJ102">
+        <v>4</v>
+      </c>
+      <c r="BK102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3045618</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44969.54166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>152</v>
+      </c>
+      <c r="P103" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>1.84</v>
+      </c>
+      <c r="AD103">
+        <v>3.86</v>
+      </c>
+      <c r="AE103">
+        <v>3.92</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>1.62</v>
+      </c>
+      <c r="AK103">
+        <v>2.25</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>1.38</v>
+      </c>
+      <c r="AR103">
+        <v>1.75</v>
+      </c>
+      <c r="AS103">
+        <v>1.56</v>
+      </c>
+      <c r="AT103">
+        <v>1.56</v>
+      </c>
+      <c r="AU103">
+        <v>1.56</v>
+      </c>
+      <c r="AV103">
+        <v>1.31</v>
+      </c>
+      <c r="AW103">
+        <v>2.87</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>0</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>0</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>2</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>1</v>
+      </c>
+      <c r="BI103">
+        <v>2</v>
+      </c>
+      <c r="BJ103">
+        <v>3</v>
+      </c>
+      <c r="BK103">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -20364,13 +20364,13 @@
         <v>213</v>
       </c>
       <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
         <v>5</v>
       </c>
-      <c r="R102">
-        <v>4</v>
-      </c>
       <c r="S102">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -20555,13 +20555,13 @@
         <v>185</v>
       </c>
       <c r="Q103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S103">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T103">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,15 @@
     <t>['31', '49', '90+3']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['52', '81', '85']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -656,6 +665,18 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['25', '30', '44']</t>
+  </si>
+  <si>
+    <t>['11', '44']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['45', '56', '85']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1372,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1452,7 +1473,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1643,7 +1664,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1733,7 +1754,7 @@
         <v>0.44</v>
       </c>
       <c r="AT4">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1921,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
         <v>1.67</v>
@@ -2025,7 +2046,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2112,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2303,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT7">
         <v>0.5600000000000001</v>
@@ -2598,7 +2619,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2688,7 +2709,7 @@
         <v>0.89</v>
       </c>
       <c r="AT9">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2879,7 +2900,7 @@
         <v>2.44</v>
       </c>
       <c r="AT10">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3067,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>0.78</v>
@@ -3171,7 +3192,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3258,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT12">
         <v>1.56</v>
@@ -3362,7 +3383,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3452,7 +3473,7 @@
         <v>1.56</v>
       </c>
       <c r="AT13">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3553,7 +3574,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3643,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU14">
         <v>1.08</v>
@@ -3744,7 +3765,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3834,7 +3855,7 @@
         <v>0.44</v>
       </c>
       <c r="AT15">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU15">
         <v>1.02</v>
@@ -3935,7 +3956,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4022,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT16">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU16">
         <v>1.21</v>
@@ -4126,7 +4147,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4213,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT17">
         <v>0.67</v>
@@ -4317,7 +4338,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4407,7 +4428,7 @@
         <v>0.89</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0.7</v>
@@ -4508,7 +4529,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4595,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>1.56</v>
@@ -4977,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT21">
         <v>0.5600000000000001</v>
@@ -5171,7 +5192,7 @@
         <v>2.44</v>
       </c>
       <c r="AT22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU22">
         <v>0.95</v>
@@ -5359,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
         <v>0.78</v>
@@ -5463,7 +5484,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5553,7 +5574,7 @@
         <v>2.33</v>
       </c>
       <c r="AT24">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU24">
         <v>1.88</v>
@@ -5654,7 +5675,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6036,7 +6057,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6227,7 +6248,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6317,7 +6338,7 @@
         <v>2.44</v>
       </c>
       <c r="AT28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU28">
         <v>1.12</v>
@@ -6418,7 +6439,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6609,7 +6630,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6699,7 +6720,7 @@
         <v>0.44</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -6800,7 +6821,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6887,10 +6908,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU31">
         <v>0.9</v>
@@ -7078,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT32">
         <v>0.5600000000000001</v>
@@ -7272,7 +7293,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU33">
         <v>1.07</v>
@@ -7373,7 +7394,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7460,10 +7481,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU34">
         <v>1.3</v>
@@ -7564,7 +7585,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7651,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU35">
         <v>1.49</v>
@@ -7755,7 +7776,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7842,10 +7863,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT36">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU36">
         <v>1.71</v>
@@ -8137,7 +8158,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8519,7 +8540,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8710,7 +8731,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9179,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU43">
         <v>1.21</v>
@@ -9283,7 +9304,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9370,10 +9391,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT44">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU44">
         <v>1.48</v>
@@ -9474,7 +9495,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9564,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU45">
         <v>1.09</v>
@@ -9665,7 +9686,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9752,10 +9773,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT46">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU46">
         <v>0.84</v>
@@ -9856,7 +9877,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9943,10 +9964,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.04</v>
@@ -10047,7 +10068,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10134,10 +10155,10 @@
         <v>1.67</v>
       </c>
       <c r="AS48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU48">
         <v>1.4</v>
@@ -10238,7 +10259,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10620,7 +10641,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11384,7 +11405,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11471,10 +11492,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU55">
         <v>0.96</v>
@@ -11575,7 +11596,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11662,7 +11683,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
         <v>1.56</v>
@@ -11766,7 +11787,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11856,7 +11877,7 @@
         <v>2.33</v>
       </c>
       <c r="AT57">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU57">
         <v>1.95</v>
@@ -11957,7 +11978,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12047,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU58">
         <v>1.08</v>
@@ -12148,7 +12169,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12235,7 +12256,7 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT59">
         <v>1.56</v>
@@ -12339,7 +12360,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12429,7 +12450,7 @@
         <v>1.56</v>
       </c>
       <c r="AT60">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12617,7 +12638,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT61">
         <v>0.67</v>
@@ -12721,7 +12742,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12811,7 +12832,7 @@
         <v>0.89</v>
       </c>
       <c r="AT62">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU62">
         <v>1.1</v>
@@ -12912,7 +12933,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13103,7 +13124,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13485,7 +13506,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13572,10 +13593,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13867,7 +13888,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13954,10 +13975,10 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT68">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14058,7 +14079,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14145,7 +14166,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT69">
         <v>0.67</v>
@@ -14440,7 +14461,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14530,7 +14551,7 @@
         <v>2.44</v>
       </c>
       <c r="AT71">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14631,7 +14652,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14721,7 +14742,7 @@
         <v>1.56</v>
       </c>
       <c r="AT72">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14912,7 +14933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU73">
         <v>2.01</v>
@@ -15013,7 +15034,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15100,7 +15121,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT74">
         <v>1.56</v>
@@ -15204,7 +15225,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15291,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT75">
         <v>1.67</v>
@@ -15395,7 +15416,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15485,7 +15506,7 @@
         <v>0.44</v>
       </c>
       <c r="AT76">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU76">
         <v>1.14</v>
@@ -15673,7 +15694,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
         <v>0.5600000000000001</v>
@@ -15777,7 +15798,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15867,7 +15888,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU78">
         <v>1.42</v>
@@ -16055,7 +16076,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
         <v>0.78</v>
@@ -16159,7 +16180,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16246,7 +16267,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
         <v>1.56</v>
@@ -16350,7 +16371,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16437,7 +16458,7 @@
         <v>1.29</v>
       </c>
       <c r="AS81">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT81">
         <v>1.67</v>
@@ -16732,7 +16753,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16822,7 +16843,7 @@
         <v>1.56</v>
       </c>
       <c r="AT83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -16923,7 +16944,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17013,7 +17034,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17114,7 +17135,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17305,7 +17326,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17395,7 +17416,7 @@
         <v>0.44</v>
       </c>
       <c r="AT86">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU86">
         <v>1.15</v>
@@ -17496,7 +17517,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17687,7 +17708,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17774,7 +17795,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT88">
         <v>0.67</v>
@@ -17878,7 +17899,7 @@
         <v>107</v>
       </c>
       <c r="P89" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17968,7 +17989,7 @@
         <v>0.89</v>
       </c>
       <c r="AT89">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU89">
         <v>1.15</v>
@@ -18156,10 +18177,10 @@
         <v>1.57</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.14</v>
@@ -18347,10 +18368,10 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18538,7 +18559,7 @@
         <v>0.63</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>0.5600000000000001</v>
@@ -18729,10 +18750,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU93">
         <v>0.97</v>
@@ -18833,7 +18854,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18920,7 +18941,7 @@
         <v>1.57</v>
       </c>
       <c r="AS94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT94">
         <v>1.56</v>
@@ -19114,7 +19135,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU95">
         <v>1.56</v>
@@ -19215,7 +19236,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19302,10 +19323,10 @@
         <v>2.57</v>
       </c>
       <c r="AS96">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT96">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU96">
         <v>1.27</v>
@@ -19406,7 +19427,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19496,7 +19517,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU97">
         <v>1.38</v>
@@ -19979,7 +20000,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20170,7 +20191,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20361,7 +20382,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20451,7 +20472,7 @@
         <v>0.89</v>
       </c>
       <c r="AT102">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU102">
         <v>1.13</v>
@@ -20552,7 +20573,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20694,6 +20715,1152 @@
       </c>
       <c r="BK103">
         <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3045622</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44975.54166666666</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>87</v>
+      </c>
+      <c r="P104" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q104">
+        <v>7</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>2.2</v>
+      </c>
+      <c r="AD104">
+        <v>3.5</v>
+      </c>
+      <c r="AE104">
+        <v>3</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>1.57</v>
+      </c>
+      <c r="AK104">
+        <v>2.33</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>0.88</v>
+      </c>
+      <c r="AR104">
+        <v>1.63</v>
+      </c>
+      <c r="AS104">
+        <v>0.78</v>
+      </c>
+      <c r="AT104">
+        <v>1.78</v>
+      </c>
+      <c r="AU104">
+        <v>1.24</v>
+      </c>
+      <c r="AV104">
+        <v>1.21</v>
+      </c>
+      <c r="AW104">
+        <v>2.45</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>0</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>6</v>
+      </c>
+      <c r="BG104">
+        <v>3</v>
+      </c>
+      <c r="BH104">
+        <v>8</v>
+      </c>
+      <c r="BI104">
+        <v>7</v>
+      </c>
+      <c r="BJ104">
+        <v>14</v>
+      </c>
+      <c r="BK104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3045626</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44975.54166666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>143</v>
+      </c>
+      <c r="P105" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>4.8</v>
+      </c>
+      <c r="AD105">
+        <v>3.9</v>
+      </c>
+      <c r="AE105">
+        <v>1.61</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>1.68</v>
+      </c>
+      <c r="AK105">
+        <v>2.1</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>0.88</v>
+      </c>
+      <c r="AR105">
+        <v>1.75</v>
+      </c>
+      <c r="AS105">
+        <v>0.78</v>
+      </c>
+      <c r="AT105">
+        <v>1.89</v>
+      </c>
+      <c r="AU105">
+        <v>0.99</v>
+      </c>
+      <c r="AV105">
+        <v>1.32</v>
+      </c>
+      <c r="AW105">
+        <v>2.31</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>0</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>5</v>
+      </c>
+      <c r="BG105">
+        <v>2</v>
+      </c>
+      <c r="BH105">
+        <v>4</v>
+      </c>
+      <c r="BI105">
+        <v>6</v>
+      </c>
+      <c r="BJ105">
+        <v>9</v>
+      </c>
+      <c r="BK105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3045624</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44975.54166666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>66</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>153</v>
+      </c>
+      <c r="P106" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>7</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>4.1</v>
+      </c>
+      <c r="AD106">
+        <v>3.7</v>
+      </c>
+      <c r="AE106">
+        <v>1.75</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>1.68</v>
+      </c>
+      <c r="AK106">
+        <v>2.1</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.88</v>
+      </c>
+      <c r="AS106">
+        <v>1</v>
+      </c>
+      <c r="AT106">
+        <v>1.78</v>
+      </c>
+      <c r="AU106">
+        <v>1.11</v>
+      </c>
+      <c r="AV106">
+        <v>0.96</v>
+      </c>
+      <c r="AW106">
+        <v>2.07</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>0</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>0</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>9</v>
+      </c>
+      <c r="BG106">
+        <v>3</v>
+      </c>
+      <c r="BH106">
+        <v>4</v>
+      </c>
+      <c r="BI106">
+        <v>3</v>
+      </c>
+      <c r="BJ106">
+        <v>13</v>
+      </c>
+      <c r="BK106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>3045627</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44976.4375</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>65</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>112</v>
+      </c>
+      <c r="P107" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <v>13</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>7.4</v>
+      </c>
+      <c r="AD107">
+        <v>5.3</v>
+      </c>
+      <c r="AE107">
+        <v>1.37</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>1.44</v>
+      </c>
+      <c r="AK107">
+        <v>2.67</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>1.5</v>
+      </c>
+      <c r="AR107">
+        <v>2.63</v>
+      </c>
+      <c r="AS107">
+        <v>1.33</v>
+      </c>
+      <c r="AT107">
+        <v>2.67</v>
+      </c>
+      <c r="AU107">
+        <v>1.22</v>
+      </c>
+      <c r="AV107">
+        <v>1.41</v>
+      </c>
+      <c r="AW107">
+        <v>2.63</v>
+      </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>0</v>
+      </c>
+      <c r="BC107">
+        <v>0</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>2</v>
+      </c>
+      <c r="BG107">
+        <v>3</v>
+      </c>
+      <c r="BH107">
+        <v>3</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>5</v>
+      </c>
+      <c r="BK107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>3045625</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44976.4375</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>154</v>
+      </c>
+      <c r="P108" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>7</v>
+      </c>
+      <c r="S108">
+        <v>8</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>3.78</v>
+      </c>
+      <c r="AD108">
+        <v>3.92</v>
+      </c>
+      <c r="AE108">
+        <v>1.87</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>1.58</v>
+      </c>
+      <c r="AK108">
+        <v>2.3</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>1.5</v>
+      </c>
+      <c r="AR108">
+        <v>1.5</v>
+      </c>
+      <c r="AS108">
+        <v>1.67</v>
+      </c>
+      <c r="AT108">
+        <v>1.33</v>
+      </c>
+      <c r="AU108">
+        <v>0.96</v>
+      </c>
+      <c r="AV108">
+        <v>1.06</v>
+      </c>
+      <c r="AW108">
+        <v>2.02</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>2</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>1</v>
+      </c>
+      <c r="BI108">
+        <v>4</v>
+      </c>
+      <c r="BJ108">
+        <v>3</v>
+      </c>
+      <c r="BK108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>3045623</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44976.54166666666</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>155</v>
+      </c>
+      <c r="P109" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q109">
+        <v>6</v>
+      </c>
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>1.49</v>
+      </c>
+      <c r="AD109">
+        <v>4.2</v>
+      </c>
+      <c r="AE109">
+        <v>5.9</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>1.62</v>
+      </c>
+      <c r="AK109">
+        <v>2.23</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>1.25</v>
+      </c>
+      <c r="AR109">
+        <v>0.88</v>
+      </c>
+      <c r="AS109">
+        <v>1.44</v>
+      </c>
+      <c r="AT109">
+        <v>0.78</v>
+      </c>
+      <c r="AU109">
+        <v>1.71</v>
+      </c>
+      <c r="AV109">
+        <v>1.16</v>
+      </c>
+      <c r="AW109">
+        <v>2.87</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>0</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>2</v>
+      </c>
+      <c r="BG109">
+        <v>2</v>
+      </c>
+      <c r="BH109">
+        <v>5</v>
+      </c>
+      <c r="BI109">
+        <v>4</v>
+      </c>
+      <c r="BJ109">
+        <v>7</v>
+      </c>
+      <c r="BK109">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>['52', '81', '85']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,7 +1476,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT3">
         <v>1.56</v>
@@ -1664,7 +1667,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2046,7 +2049,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2518,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2619,7 +2622,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -3192,7 +3195,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3383,7 +3386,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3574,7 +3577,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3765,7 +3768,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3956,7 +3959,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4147,7 +4150,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4237,7 +4240,7 @@
         <v>1.44</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU17">
         <v>1.93</v>
@@ -4338,7 +4341,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4529,7 +4532,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5484,7 +5487,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5675,7 +5678,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5762,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
         <v>1.56</v>
@@ -6057,7 +6060,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6147,7 +6150,7 @@
         <v>0.89</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU27">
         <v>1</v>
@@ -6248,7 +6251,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6439,7 +6442,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6630,7 +6633,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6821,7 +6824,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7290,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT33">
         <v>0.78</v>
@@ -7394,7 +7397,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7585,7 +7588,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7776,7 +7779,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8158,7 +8161,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8248,7 +8251,7 @@
         <v>1.56</v>
       </c>
       <c r="AT38">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU38">
         <v>1.63</v>
@@ -8540,7 +8543,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8731,7 +8734,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9009,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT42">
         <v>0.5600000000000001</v>
@@ -9304,7 +9307,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9495,7 +9498,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9686,7 +9689,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9877,7 +9880,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10068,7 +10071,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10259,7 +10262,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10346,7 +10349,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT49">
         <v>1.67</v>
@@ -10641,7 +10644,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10922,7 +10925,7 @@
         <v>2.44</v>
       </c>
       <c r="AT52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU52">
         <v>1.62</v>
@@ -11405,7 +11408,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11596,7 +11599,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11787,7 +11790,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11978,7 +11981,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12169,7 +12172,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12360,7 +12363,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12641,7 +12644,7 @@
         <v>0.78</v>
       </c>
       <c r="AT61">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU61">
         <v>1.27</v>
@@ -12742,7 +12745,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12933,7 +12936,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13020,7 +13023,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT63">
         <v>0.78</v>
@@ -13124,7 +13127,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13506,7 +13509,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13888,7 +13891,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14079,7 +14082,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14169,7 +14172,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU69">
         <v>1.17</v>
@@ -14461,7 +14464,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14652,7 +14655,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15034,7 +15037,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15225,7 +15228,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15416,7 +15419,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15798,7 +15801,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15885,7 +15888,7 @@
         <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT78">
         <v>1.33</v>
@@ -16180,7 +16183,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16371,7 +16374,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16753,7 +16756,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16944,7 +16947,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17031,7 +17034,7 @@
         <v>1.67</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT84">
         <v>1.78</v>
@@ -17135,7 +17138,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17326,7 +17329,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17517,7 +17520,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17708,7 +17711,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17798,7 +17801,7 @@
         <v>0.78</v>
       </c>
       <c r="AT88">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU88">
         <v>0.93</v>
@@ -17899,7 +17902,7 @@
         <v>107</v>
       </c>
       <c r="P89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18854,7 +18857,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19236,7 +19239,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19427,7 +19430,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19514,7 +19517,7 @@
         <v>1.86</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT97">
         <v>1.89</v>
@@ -19899,7 +19902,7 @@
         <v>2.33</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU99">
         <v>1.86</v>
@@ -20000,7 +20003,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20191,7 +20194,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20382,7 +20385,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20573,7 +20576,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20764,7 +20767,7 @@
         <v>87</v>
       </c>
       <c r="P104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20955,7 +20958,7 @@
         <v>143</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21146,7 +21149,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21337,7 +21340,7 @@
         <v>112</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21861,6 +21864,197 @@
       </c>
       <c r="BK109">
         <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3045629</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44981.6875</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" t="s">
+        <v>68</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>156</v>
+      </c>
+      <c r="P110" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>1.35</v>
+      </c>
+      <c r="AD110">
+        <v>4.75</v>
+      </c>
+      <c r="AE110">
+        <v>6.25</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>1.61</v>
+      </c>
+      <c r="AK110">
+        <v>2.2</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>1.67</v>
+      </c>
+      <c r="AR110">
+        <v>0.67</v>
+      </c>
+      <c r="AS110">
+        <v>1.8</v>
+      </c>
+      <c r="AT110">
+        <v>0.6</v>
+      </c>
+      <c r="AU110">
+        <v>1.4</v>
+      </c>
+      <c r="AV110">
+        <v>0.98</v>
+      </c>
+      <c r="AW110">
+        <v>2.38</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>5</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
+        <v>2</v>
+      </c>
+      <c r="BJ110">
+        <v>8</v>
+      </c>
+      <c r="BK110">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['31', '57', '62']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -500,9 +506,6 @@
   </si>
   <si>
     <t>['67']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['1', '8', '20', '37', '57']</t>
@@ -680,6 +683,9 @@
   </si>
   <si>
     <t>['45', '56', '85']</t>
+  </si>
+  <si>
+    <t>['13', '54']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,7 +1482,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1566,7 +1572,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1667,7 +1673,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2049,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2622,7 +2628,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2900,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT10">
         <v>2.67</v>
@@ -3094,7 +3100,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3195,7 +3201,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3386,7 +3392,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT13">
         <v>1.78</v>
@@ -3577,7 +3583,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3768,7 +3774,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3959,7 +3965,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4150,7 +4156,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4341,7 +4347,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4532,7 +4538,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4622,7 +4628,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4810,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT20">
         <v>1.67</v>
@@ -5192,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT22">
         <v>0.78</v>
@@ -5386,7 +5392,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU23">
         <v>1.02</v>
@@ -5487,7 +5493,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5678,7 +5684,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5959,7 +5965,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU26">
         <v>1.53</v>
@@ -6060,7 +6066,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6251,7 +6257,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6338,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT28">
         <v>1.78</v>
@@ -6442,7 +6448,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6633,7 +6639,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6824,7 +6830,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7397,7 +7403,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7588,7 +7594,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7779,7 +7785,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8161,7 +8167,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8248,7 +8254,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT38">
         <v>0.6</v>
@@ -8439,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT39">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU39">
         <v>1.21</v>
@@ -8543,7 +8549,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8734,7 +8740,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8824,7 +8830,7 @@
         <v>0.44</v>
       </c>
       <c r="AT41">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU41">
         <v>1.13</v>
@@ -9307,7 +9313,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9498,7 +9504,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9689,7 +9695,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9880,7 +9886,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10071,7 +10077,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10262,7 +10268,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10543,7 +10549,7 @@
         <v>0.44</v>
       </c>
       <c r="AT50">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU50">
         <v>1.09</v>
@@ -10644,7 +10650,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10734,7 +10740,7 @@
         <v>0.89</v>
       </c>
       <c r="AT51">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU51">
         <v>1.12</v>
@@ -10922,7 +10928,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT52">
         <v>0.6</v>
@@ -11113,7 +11119,7 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT53">
         <v>0.5600000000000001</v>
@@ -11408,7 +11414,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11599,7 +11605,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11790,7 +11796,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11981,7 +11987,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12172,7 +12178,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12262,7 +12268,7 @@
         <v>0.78</v>
       </c>
       <c r="AT59">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU59">
         <v>0.95</v>
@@ -12363,7 +12369,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12450,7 +12456,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60">
         <v>1.89</v>
@@ -12745,7 +12751,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12936,7 +12942,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13026,7 +13032,7 @@
         <v>1.8</v>
       </c>
       <c r="AT63">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU63">
         <v>1.43</v>
@@ -13127,7 +13133,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13405,7 +13411,7 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT65">
         <v>1.67</v>
@@ -13509,7 +13515,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13891,7 +13897,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14082,7 +14088,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14363,7 +14369,7 @@
         <v>0.89</v>
       </c>
       <c r="AT70">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU70">
         <v>1.11</v>
@@ -14464,7 +14470,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14551,7 +14557,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT71">
         <v>1.78</v>
@@ -14655,7 +14661,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14742,7 +14748,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT72">
         <v>2.67</v>
@@ -15037,7 +15043,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15127,7 +15133,7 @@
         <v>1.44</v>
       </c>
       <c r="AT74">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU74">
         <v>1.67</v>
@@ -15228,7 +15234,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15419,7 +15425,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15801,7 +15807,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16082,7 +16088,7 @@
         <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU79">
         <v>1.69</v>
@@ -16183,7 +16189,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16374,7 +16380,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16655,7 +16661,7 @@
         <v>2.33</v>
       </c>
       <c r="AT82">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU82">
         <v>1.87</v>
@@ -16756,7 +16762,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16843,7 +16849,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT83">
         <v>0.78</v>
@@ -16947,7 +16953,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17138,7 +17144,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17225,7 +17231,7 @@
         <v>0.71</v>
       </c>
       <c r="AS85">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT85">
         <v>0.5600000000000001</v>
@@ -17329,7 +17335,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17520,7 +17526,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17610,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="AT87">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU87">
         <v>1.09</v>
@@ -17711,7 +17717,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17902,7 +17908,7 @@
         <v>107</v>
       </c>
       <c r="P89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18857,7 +18863,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19135,7 +19141,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT95">
         <v>1.78</v>
@@ -19239,7 +19245,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19430,7 +19436,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19708,7 +19714,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT98">
         <v>1.56</v>
@@ -20003,7 +20009,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20194,7 +20200,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20284,7 +20290,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU101">
         <v>1.07</v>
@@ -20385,7 +20391,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20576,7 +20582,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20663,10 +20669,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU103">
         <v>1.56</v>
@@ -20767,7 +20773,7 @@
         <v>87</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20958,7 +20964,7 @@
         <v>143</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21149,7 +21155,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21340,7 +21346,7 @@
         <v>112</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -22055,6 +22061,388 @@
       </c>
       <c r="BK110">
         <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3045631</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44982.54166666666</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s">
+        <v>69</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>157</v>
+      </c>
+      <c r="P111" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>10</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>1.6</v>
+      </c>
+      <c r="AD111">
+        <v>4.27</v>
+      </c>
+      <c r="AE111">
+        <v>5.45</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>1.61</v>
+      </c>
+      <c r="AK111">
+        <v>2.15</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>1.56</v>
+      </c>
+      <c r="AR111">
+        <v>0.78</v>
+      </c>
+      <c r="AS111">
+        <v>1.7</v>
+      </c>
+      <c r="AT111">
+        <v>0.7</v>
+      </c>
+      <c r="AU111">
+        <v>1.46</v>
+      </c>
+      <c r="AV111">
+        <v>0.97</v>
+      </c>
+      <c r="AW111">
+        <v>2.43</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>3</v>
+      </c>
+      <c r="BG111">
+        <v>7</v>
+      </c>
+      <c r="BH111">
+        <v>3</v>
+      </c>
+      <c r="BI111">
+        <v>5</v>
+      </c>
+      <c r="BJ111">
+        <v>6</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>3045632</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44982.54166666666</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>75</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>158</v>
+      </c>
+      <c r="P112" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q112">
+        <v>7</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>9</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>1.49</v>
+      </c>
+      <c r="AD112">
+        <v>4.65</v>
+      </c>
+      <c r="AE112">
+        <v>6.33</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>1.61</v>
+      </c>
+      <c r="AK112">
+        <v>2.15</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>2.44</v>
+      </c>
+      <c r="AR112">
+        <v>1.56</v>
+      </c>
+      <c r="AS112">
+        <v>2.2</v>
+      </c>
+      <c r="AT112">
+        <v>1.7</v>
+      </c>
+      <c r="AU112">
+        <v>1.69</v>
+      </c>
+      <c r="AV112">
+        <v>1.21</v>
+      </c>
+      <c r="AW112">
+        <v>2.9</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>2</v>
+      </c>
+      <c r="BG112">
+        <v>2</v>
+      </c>
+      <c r="BH112">
+        <v>2</v>
+      </c>
+      <c r="BI112">
+        <v>5</v>
+      </c>
+      <c r="BJ112">
+        <v>4</v>
+      </c>
+      <c r="BK112">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,12 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['19', '88']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -686,6 +692,9 @@
   </si>
   <si>
     <t>['13', '54']</t>
+  </si>
+  <si>
+    <t>['24', '43']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT2">
         <v>1.33</v>
@@ -1482,7 +1491,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1673,7 +1682,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1760,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT4">
         <v>1.89</v>
@@ -1954,7 +1963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT5">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2055,7 +2064,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2336,7 +2345,7 @@
         <v>1.44</v>
       </c>
       <c r="AT7">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2628,7 +2637,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2715,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT9">
         <v>1.78</v>
@@ -3201,7 +3210,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3291,7 +3300,7 @@
         <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3392,7 +3401,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3774,7 +3783,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3861,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT15">
         <v>1.78</v>
@@ -3965,7 +3974,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4156,7 +4165,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4347,7 +4356,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4434,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4538,7 +4547,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4819,7 +4828,7 @@
         <v>1.7</v>
       </c>
       <c r="AT20">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU20">
         <v>1.7</v>
@@ -5010,7 +5019,7 @@
         <v>0.78</v>
       </c>
       <c r="AT21">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5493,7 +5502,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5580,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT24">
         <v>1.78</v>
@@ -5684,7 +5693,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5774,7 +5783,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU25">
         <v>1.02</v>
@@ -5962,7 +5971,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT26">
         <v>1.7</v>
@@ -6066,7 +6075,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6153,7 +6162,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT27">
         <v>0.6</v>
@@ -6257,7 +6266,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6448,7 +6457,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6538,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU29">
         <v>0.83</v>
@@ -6639,7 +6648,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6726,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT30">
         <v>1.33</v>
@@ -6830,7 +6839,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7111,7 +7120,7 @@
         <v>0.78</v>
       </c>
       <c r="AT32">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>0.9399999999999999</v>
@@ -7403,7 +7412,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7594,7 +7603,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7785,7 +7794,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8063,10 +8072,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT37">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8167,7 +8176,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8549,7 +8558,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8636,10 +8645,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT40">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU40">
         <v>1.19</v>
@@ -8740,7 +8749,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8827,7 +8836,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT41">
         <v>1.7</v>
@@ -9021,7 +9030,7 @@
         <v>1.8</v>
       </c>
       <c r="AT42">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9313,7 +9322,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9504,7 +9513,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9695,7 +9704,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9886,7 +9895,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10077,7 +10086,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10268,7 +10277,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10358,7 +10367,7 @@
         <v>1.8</v>
       </c>
       <c r="AT49">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU49">
         <v>1.4</v>
@@ -10546,7 +10555,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT50">
         <v>0.7</v>
@@ -10650,7 +10659,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10737,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT51">
         <v>1.7</v>
@@ -11122,7 +11131,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>1.63</v>
@@ -11310,10 +11319,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT54">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU54">
         <v>1.87</v>
@@ -11414,7 +11423,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11605,7 +11614,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11695,7 +11704,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU56">
         <v>1.25</v>
@@ -11796,7 +11805,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11883,7 +11892,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT57">
         <v>1.78</v>
@@ -11987,7 +11996,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12178,7 +12187,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12369,7 +12378,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12751,7 +12760,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12838,7 +12847,7 @@
         <v>2.25</v>
       </c>
       <c r="AS62">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT62">
         <v>2.67</v>
@@ -12942,7 +12951,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13133,7 +13142,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13220,10 +13229,10 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT64">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.17</v>
@@ -13414,7 +13423,7 @@
         <v>2.2</v>
       </c>
       <c r="AT65">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU65">
         <v>1.69</v>
@@ -13515,7 +13524,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13796,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU67">
         <v>1.16</v>
@@ -13897,7 +13906,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14088,7 +14097,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14366,7 +14375,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT70">
         <v>0.7</v>
@@ -14470,7 +14479,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14661,7 +14670,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14939,7 +14948,7 @@
         <v>2.2</v>
       </c>
       <c r="AS73">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT73">
         <v>1.89</v>
@@ -15043,7 +15052,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15234,7 +15243,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15324,7 +15333,7 @@
         <v>0.78</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU75">
         <v>0.9399999999999999</v>
@@ -15425,7 +15434,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15512,7 +15521,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT76">
         <v>0.78</v>
@@ -15706,7 +15715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -15807,7 +15816,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16189,7 +16198,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16279,7 +16288,7 @@
         <v>1.67</v>
       </c>
       <c r="AT80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU80">
         <v>1</v>
@@ -16380,7 +16389,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16470,7 +16479,7 @@
         <v>0.78</v>
       </c>
       <c r="AT81">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU81">
         <v>1.31</v>
@@ -16658,7 +16667,7 @@
         <v>0.57</v>
       </c>
       <c r="AS82">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT82">
         <v>0.7</v>
@@ -16762,7 +16771,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16953,7 +16962,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17144,7 +17153,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17234,7 +17243,7 @@
         <v>2.2</v>
       </c>
       <c r="AT85">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU85">
         <v>1.7</v>
@@ -17335,7 +17344,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17422,7 +17431,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT86">
         <v>2.67</v>
@@ -17526,7 +17535,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17717,7 +17726,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17995,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT89">
         <v>1.89</v>
@@ -18571,7 +18580,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU92">
         <v>1.21</v>
@@ -18863,7 +18872,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18953,7 +18962,7 @@
         <v>0.78</v>
       </c>
       <c r="AT94">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU94">
         <v>1</v>
@@ -19245,7 +19254,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19436,7 +19445,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19717,7 +19726,7 @@
         <v>2.2</v>
       </c>
       <c r="AT98">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU98">
         <v>1.77</v>
@@ -19905,7 +19914,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT99">
         <v>0.6</v>
@@ -20009,7 +20018,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20096,10 +20105,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU100">
         <v>1.17</v>
@@ -20200,7 +20209,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20391,7 +20400,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20478,7 +20487,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT102">
         <v>1.78</v>
@@ -20582,7 +20591,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20773,7 +20782,7 @@
         <v>87</v>
       </c>
       <c r="P104" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20964,7 +20973,7 @@
         <v>143</v>
       </c>
       <c r="P105" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21155,7 +21164,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21346,7 +21355,7 @@
         <v>112</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -22301,7 +22310,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22443,6 +22452,579 @@
       </c>
       <c r="BK112">
         <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>3045630</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44983.4375</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>159</v>
+      </c>
+      <c r="P113" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>7</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>2.75</v>
+      </c>
+      <c r="AD113">
+        <v>3.6</v>
+      </c>
+      <c r="AE113">
+        <v>2.3</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>1.63</v>
+      </c>
+      <c r="AK113">
+        <v>2.23</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>0.44</v>
+      </c>
+      <c r="AR113">
+        <v>1.56</v>
+      </c>
+      <c r="AS113">
+        <v>0.4</v>
+      </c>
+      <c r="AT113">
+        <v>1.7</v>
+      </c>
+      <c r="AU113">
+        <v>1.14</v>
+      </c>
+      <c r="AV113">
+        <v>1.42</v>
+      </c>
+      <c r="AW113">
+        <v>2.56</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>3</v>
+      </c>
+      <c r="BG113">
+        <v>4</v>
+      </c>
+      <c r="BH113">
+        <v>3</v>
+      </c>
+      <c r="BI113">
+        <v>1</v>
+      </c>
+      <c r="BJ113">
+        <v>6</v>
+      </c>
+      <c r="BK113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>3045633</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44983.4375</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P114" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>2.55</v>
+      </c>
+      <c r="AD114">
+        <v>3.3</v>
+      </c>
+      <c r="AE114">
+        <v>2.63</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>1.67</v>
+      </c>
+      <c r="AK114">
+        <v>2.12</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>0.89</v>
+      </c>
+      <c r="AR114">
+        <v>1.67</v>
+      </c>
+      <c r="AS114">
+        <v>0.9</v>
+      </c>
+      <c r="AT114">
+        <v>1.6</v>
+      </c>
+      <c r="AU114">
+        <v>1.09</v>
+      </c>
+      <c r="AV114">
+        <v>1.25</v>
+      </c>
+      <c r="AW114">
+        <v>2.34</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>0</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
+        <v>4</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>4</v>
+      </c>
+      <c r="BK114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>3045628</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44983.54166666666</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>160</v>
+      </c>
+      <c r="P115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q115">
+        <v>12</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>16</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>1.13</v>
+      </c>
+      <c r="AD115">
+        <v>8.4</v>
+      </c>
+      <c r="AE115">
+        <v>19</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>1.43</v>
+      </c>
+      <c r="AK115">
+        <v>2.51</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>2.33</v>
+      </c>
+      <c r="AR115">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS115">
+        <v>2.4</v>
+      </c>
+      <c r="AT115">
+        <v>0.5</v>
+      </c>
+      <c r="AU115">
+        <v>1.85</v>
+      </c>
+      <c r="AV115">
+        <v>0.98</v>
+      </c>
+      <c r="AW115">
+        <v>2.83</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>5</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
+        <v>7</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>12</v>
+      </c>
+      <c r="BK115">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,21 @@
     <t>['19', '88']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['16', '90']</t>
+  </si>
+  <si>
+    <t>['45', '46']</t>
+  </si>
+  <si>
+    <t>['13', '26', '33']</t>
+  </si>
+  <si>
+    <t>['44', '90+5']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -695,6 +710,21 @@
   </si>
   <si>
     <t>['24', '43']</t>
+  </si>
+  <si>
+    <t>['33', '56', '82']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['51', '76']</t>
+  </si>
+  <si>
+    <t>['22', '34', '90+1']</t>
+  </si>
+  <si>
+    <t>['4', '80', '84', '87']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1420,7 @@
         <v>2.4</v>
       </c>
       <c r="AT2">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1491,7 +1521,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1682,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1772,7 +1802,7 @@
         <v>0.4</v>
       </c>
       <c r="AT4">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1960,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>1.6</v>
@@ -2064,7 +2094,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2151,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2342,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT7">
         <v>0.5</v>
@@ -2533,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT8">
         <v>0.6</v>
@@ -2637,7 +2667,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2727,7 +2757,7 @@
         <v>0.9</v>
       </c>
       <c r="AT9">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2918,7 +2948,7 @@
         <v>2.2</v>
       </c>
       <c r="AT10">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3106,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT11">
         <v>0.7</v>
@@ -3210,7 +3240,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3297,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT12">
         <v>1.7</v>
@@ -3401,7 +3431,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3491,7 +3521,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3679,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>1.08</v>
@@ -3783,7 +3813,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3873,7 +3903,7 @@
         <v>0.4</v>
       </c>
       <c r="AT15">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU15">
         <v>1.02</v>
@@ -3974,7 +4004,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4061,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU16">
         <v>1.21</v>
@@ -4165,7 +4195,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4252,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT17">
         <v>0.6</v>
@@ -4356,7 +4386,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4446,7 +4476,7 @@
         <v>0.9</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0.7</v>
@@ -4547,7 +4577,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4634,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
         <v>1.7</v>
@@ -5016,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT21">
         <v>0.5</v>
@@ -5210,7 +5240,7 @@
         <v>2.2</v>
       </c>
       <c r="AT22">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU22">
         <v>0.95</v>
@@ -5398,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>0.7</v>
@@ -5502,7 +5532,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5592,7 +5622,7 @@
         <v>2.4</v>
       </c>
       <c r="AT24">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU24">
         <v>1.88</v>
@@ -5693,7 +5723,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6075,7 +6105,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6266,7 +6296,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6356,7 +6386,7 @@
         <v>2.2</v>
       </c>
       <c r="AT28">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU28">
         <v>1.12</v>
@@ -6457,7 +6487,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6544,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT29">
         <v>1.6</v>
@@ -6648,7 +6678,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6738,7 +6768,7 @@
         <v>0.4</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -6839,7 +6869,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6926,10 +6956,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
         <v>0.9</v>
@@ -7117,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
@@ -7311,7 +7341,7 @@
         <v>1.8</v>
       </c>
       <c r="AT33">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU33">
         <v>1.07</v>
@@ -7412,7 +7442,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7499,10 +7529,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT34">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU34">
         <v>1.3</v>
@@ -7603,7 +7633,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7690,10 +7720,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU35">
         <v>1.49</v>
@@ -7794,7 +7824,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7881,10 +7911,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT36">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.71</v>
@@ -8176,7 +8206,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8558,7 +8588,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8749,7 +8779,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9218,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU43">
         <v>1.21</v>
@@ -9322,7 +9352,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9409,10 +9439,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT44">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>1.48</v>
@@ -9513,7 +9543,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9600,10 +9630,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT45">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU45">
         <v>1.09</v>
@@ -9704,7 +9734,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9791,10 +9821,10 @@
         <v>2.33</v>
       </c>
       <c r="AS46">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU46">
         <v>0.84</v>
@@ -9895,7 +9925,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9982,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU47">
         <v>1.04</v>
@@ -10086,7 +10116,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10173,10 +10203,10 @@
         <v>1.67</v>
       </c>
       <c r="AS48">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU48">
         <v>1.4</v>
@@ -10277,7 +10307,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10659,7 +10689,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11423,7 +11453,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11510,10 +11540,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU55">
         <v>0.96</v>
@@ -11614,7 +11644,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11701,7 +11731,7 @@
         <v>1.75</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
         <v>1.7</v>
@@ -11805,7 +11835,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11895,7 +11925,7 @@
         <v>2.4</v>
       </c>
       <c r="AT57">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU57">
         <v>1.95</v>
@@ -11996,7 +12026,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12083,10 +12113,10 @@
         <v>0.25</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU58">
         <v>1.08</v>
@@ -12187,7 +12217,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12274,7 +12304,7 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT59">
         <v>1.7</v>
@@ -12378,7 +12408,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12468,7 +12498,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -12656,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>0.6</v>
@@ -12760,7 +12790,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12850,7 +12880,7 @@
         <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU62">
         <v>1.1</v>
@@ -12951,7 +12981,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13142,7 +13172,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13524,7 +13554,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13611,10 +13641,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13802,7 +13832,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT67">
         <v>1.7</v>
@@ -13906,7 +13936,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13993,10 +14023,10 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT68">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14097,7 +14127,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14184,7 +14214,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT69">
         <v>0.6</v>
@@ -14479,7 +14509,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14569,7 +14599,7 @@
         <v>2.2</v>
       </c>
       <c r="AT71">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14670,7 +14700,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14760,7 +14790,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -14951,7 +14981,7 @@
         <v>2.4</v>
       </c>
       <c r="AT73">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU73">
         <v>2.01</v>
@@ -15052,7 +15082,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15139,7 +15169,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT74">
         <v>1.7</v>
@@ -15243,7 +15273,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15330,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT75">
         <v>1.6</v>
@@ -15434,7 +15464,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15524,7 +15554,7 @@
         <v>0.4</v>
       </c>
       <c r="AT76">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU76">
         <v>1.14</v>
@@ -15712,7 +15742,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
         <v>0.5</v>
@@ -15816,7 +15846,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15906,7 +15936,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU78">
         <v>1.42</v>
@@ -16094,7 +16124,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT79">
         <v>0.7</v>
@@ -16198,7 +16228,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16285,7 +16315,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
         <v>1.7</v>
@@ -16389,7 +16419,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16476,7 +16506,7 @@
         <v>1.29</v>
       </c>
       <c r="AS81">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT81">
         <v>1.6</v>
@@ -16771,7 +16801,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16861,7 +16891,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -16962,7 +16992,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17052,7 +17082,7 @@
         <v>1.8</v>
       </c>
       <c r="AT84">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17153,7 +17183,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17344,7 +17374,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17434,7 +17464,7 @@
         <v>0.4</v>
       </c>
       <c r="AT86">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU86">
         <v>1.15</v>
@@ -17535,7 +17565,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17622,7 +17652,7 @@
         <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT87">
         <v>1.7</v>
@@ -17726,7 +17756,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17813,7 +17843,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT88">
         <v>0.6</v>
@@ -18007,7 +18037,7 @@
         <v>0.9</v>
       </c>
       <c r="AT89">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU89">
         <v>1.15</v>
@@ -18195,10 +18225,10 @@
         <v>1.57</v>
       </c>
       <c r="AS90">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU90">
         <v>1.14</v>
@@ -18386,10 +18416,10 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT91">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18577,7 +18607,7 @@
         <v>0.63</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
         <v>0.5</v>
@@ -18768,10 +18798,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU93">
         <v>0.97</v>
@@ -18872,7 +18902,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -18959,7 +18989,7 @@
         <v>1.57</v>
       </c>
       <c r="AS94">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>1.7</v>
@@ -19153,7 +19183,7 @@
         <v>1.7</v>
       </c>
       <c r="AT95">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU95">
         <v>1.56</v>
@@ -19254,7 +19284,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19341,10 +19371,10 @@
         <v>2.57</v>
       </c>
       <c r="AS96">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT96">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU96">
         <v>1.27</v>
@@ -19445,7 +19475,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19535,7 +19565,7 @@
         <v>1.8</v>
       </c>
       <c r="AT97">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.38</v>
@@ -20018,7 +20048,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20209,7 +20239,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20296,7 +20326,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT101">
         <v>0.7</v>
@@ -20400,7 +20430,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20490,7 +20520,7 @@
         <v>0.9</v>
       </c>
       <c r="AT102">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU102">
         <v>1.13</v>
@@ -20591,7 +20621,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20782,7 +20812,7 @@
         <v>87</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20869,10 +20899,10 @@
         <v>1.63</v>
       </c>
       <c r="AS104">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT104">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU104">
         <v>1.24</v>
@@ -20973,7 +21003,7 @@
         <v>143</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21060,10 +21090,10 @@
         <v>1.75</v>
       </c>
       <c r="AS105">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT105">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU105">
         <v>0.99</v>
@@ -21164,7 +21194,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21251,10 +21281,10 @@
         <v>1.88</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT106">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU106">
         <v>1.11</v>
@@ -21355,7 +21385,7 @@
         <v>112</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21442,10 +21472,10 @@
         <v>2.63</v>
       </c>
       <c r="AS107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT107">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU107">
         <v>1.22</v>
@@ -21633,10 +21663,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>0.96</v>
@@ -21824,10 +21854,10 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU109">
         <v>1.71</v>
@@ -22310,7 +22340,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22501,7 +22531,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23025,6 +23055,1152 @@
       </c>
       <c r="BK115">
         <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>3045636</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44989.54166666666</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>161</v>
+      </c>
+      <c r="P116" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>10</v>
+      </c>
+      <c r="S116">
+        <v>14</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>3.4</v>
+      </c>
+      <c r="AD116">
+        <v>3.5</v>
+      </c>
+      <c r="AE116">
+        <v>2.1</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>1.75</v>
+      </c>
+      <c r="AK116">
+        <v>1.89</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1.33</v>
+      </c>
+      <c r="AS116">
+        <v>0.9</v>
+      </c>
+      <c r="AT116">
+        <v>1.5</v>
+      </c>
+      <c r="AU116">
+        <v>1.17</v>
+      </c>
+      <c r="AV116">
+        <v>1.03</v>
+      </c>
+      <c r="AW116">
+        <v>2.2</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>2</v>
+      </c>
+      <c r="BG116">
+        <v>7</v>
+      </c>
+      <c r="BH116">
+        <v>5</v>
+      </c>
+      <c r="BI116">
+        <v>10</v>
+      </c>
+      <c r="BJ116">
+        <v>7</v>
+      </c>
+      <c r="BK116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>3045638</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44989.54166666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>69</v>
+      </c>
+      <c r="H117" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>162</v>
+      </c>
+      <c r="P117" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>12</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>2.95</v>
+      </c>
+      <c r="AD117">
+        <v>3.55</v>
+      </c>
+      <c r="AE117">
+        <v>2.3</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>1.6</v>
+      </c>
+      <c r="AK117">
+        <v>2.11</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0.78</v>
+      </c>
+      <c r="AR117">
+        <v>1.78</v>
+      </c>
+      <c r="AS117">
+        <v>1</v>
+      </c>
+      <c r="AT117">
+        <v>1.6</v>
+      </c>
+      <c r="AU117">
+        <v>1.02</v>
+      </c>
+      <c r="AV117">
+        <v>1.21</v>
+      </c>
+      <c r="AW117">
+        <v>2.23</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>3</v>
+      </c>
+      <c r="BI117">
+        <v>4</v>
+      </c>
+      <c r="BJ117">
+        <v>7</v>
+      </c>
+      <c r="BK117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>3045637</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44989.54166666666</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>87</v>
+      </c>
+      <c r="P118" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>14</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>5.5</v>
+      </c>
+      <c r="AD118">
+        <v>4.2</v>
+      </c>
+      <c r="AE118">
+        <v>1.57</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>1.66</v>
+      </c>
+      <c r="AK118">
+        <v>2.01</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>1.67</v>
+      </c>
+      <c r="AR118">
+        <v>1.89</v>
+      </c>
+      <c r="AS118">
+        <v>1.5</v>
+      </c>
+      <c r="AT118">
+        <v>2</v>
+      </c>
+      <c r="AU118">
+        <v>0.91</v>
+      </c>
+      <c r="AV118">
+        <v>1.28</v>
+      </c>
+      <c r="AW118">
+        <v>2.19</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>3</v>
+      </c>
+      <c r="BI118">
+        <v>14</v>
+      </c>
+      <c r="BJ118">
+        <v>7</v>
+      </c>
+      <c r="BK118">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3045639</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44990.4375</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" t="s">
+        <v>163</v>
+      </c>
+      <c r="P119" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>7</v>
+      </c>
+      <c r="S119">
+        <v>10</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>3.1</v>
+      </c>
+      <c r="AD119">
+        <v>3.65</v>
+      </c>
+      <c r="AE119">
+        <v>2.08</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>1.64</v>
+      </c>
+      <c r="AK119">
+        <v>2.04</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>1.33</v>
+      </c>
+      <c r="AR119">
+        <v>1.78</v>
+      </c>
+      <c r="AS119">
+        <v>1.2</v>
+      </c>
+      <c r="AT119">
+        <v>1.9</v>
+      </c>
+      <c r="AU119">
+        <v>1.18</v>
+      </c>
+      <c r="AV119">
+        <v>0.96</v>
+      </c>
+      <c r="AW119">
+        <v>2.14</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>2</v>
+      </c>
+      <c r="BG119">
+        <v>6</v>
+      </c>
+      <c r="BH119">
+        <v>2</v>
+      </c>
+      <c r="BI119">
+        <v>2</v>
+      </c>
+      <c r="BJ119">
+        <v>4</v>
+      </c>
+      <c r="BK119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>3045634</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44990.4375</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>75</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>164</v>
+      </c>
+      <c r="P120" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>1.77</v>
+      </c>
+      <c r="AD120">
+        <v>3.58</v>
+      </c>
+      <c r="AE120">
+        <v>3.68</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>1.62</v>
+      </c>
+      <c r="AK120">
+        <v>2.08</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0.78</v>
+      </c>
+      <c r="AR120">
+        <v>0.78</v>
+      </c>
+      <c r="AS120">
+        <v>1</v>
+      </c>
+      <c r="AT120">
+        <v>0.7</v>
+      </c>
+      <c r="AU120">
+        <v>1.29</v>
+      </c>
+      <c r="AV120">
+        <v>1.11</v>
+      </c>
+      <c r="AW120">
+        <v>2.4</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>3</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>2</v>
+      </c>
+      <c r="BI120">
+        <v>1</v>
+      </c>
+      <c r="BJ120">
+        <v>5</v>
+      </c>
+      <c r="BK120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>3045635</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44990.54166666666</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>65</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121" t="s">
+        <v>165</v>
+      </c>
+      <c r="P121" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>6</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>3.65</v>
+      </c>
+      <c r="AD121">
+        <v>3.7</v>
+      </c>
+      <c r="AE121">
+        <v>1.87</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>1.63</v>
+      </c>
+      <c r="AK121">
+        <v>2.2</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>1.44</v>
+      </c>
+      <c r="AR121">
+        <v>2.67</v>
+      </c>
+      <c r="AS121">
+        <v>1.3</v>
+      </c>
+      <c r="AT121">
+        <v>2.7</v>
+      </c>
+      <c r="AU121">
+        <v>1.63</v>
+      </c>
+      <c r="AV121">
+        <v>1.33</v>
+      </c>
+      <c r="AW121">
+        <v>2.96</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>8</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>11</v>
+      </c>
+      <c r="BK121">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,18 @@
     <t>['44', '90+5']</t>
   </si>
   <si>
+    <t>['34', '65', '71']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['74', '86']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -572,9 +584,6 @@
   </si>
   <si>
     <t>['27', '34']</t>
-  </si>
-  <si>
-    <t>['9']</t>
   </si>
   <si>
     <t>['16', '36', '60', '68']</t>
@@ -725,6 +734,18 @@
   </si>
   <si>
     <t>['4', '80', '84', '87']</t>
+  </si>
+  <si>
+    <t>['54', '72']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['34', '76']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1441,7 @@
         <v>2.4</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1521,7 +1542,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1608,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT3">
         <v>1.7</v>
@@ -1712,7 +1733,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1799,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -1993,7 +2014,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2094,7 +2115,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2372,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2566,7 +2587,7 @@
         <v>0.9</v>
       </c>
       <c r="AT8">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2667,7 +2688,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2754,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT9">
         <v>1.6</v>
@@ -2945,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT10">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3139,7 +3160,7 @@
         <v>1.2</v>
       </c>
       <c r="AT11">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3240,7 +3261,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3327,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
         <v>1.7</v>
@@ -3431,7 +3452,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3813,7 +3834,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3900,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT15">
         <v>1.9</v>
@@ -4004,7 +4025,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4094,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU16">
         <v>1.21</v>
@@ -4195,7 +4216,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4282,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU17">
         <v>1.93</v>
@@ -4386,7 +4407,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>10</v>
@@ -4473,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU18">
         <v>0.7</v>
@@ -4577,7 +4598,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4858,7 +4879,7 @@
         <v>1.7</v>
       </c>
       <c r="AT20">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU20">
         <v>1.7</v>
@@ -5046,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5237,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT22">
         <v>0.7</v>
@@ -5431,7 +5452,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU23">
         <v>1.02</v>
@@ -5532,7 +5553,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>17</v>
@@ -5723,7 +5744,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5810,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT25">
         <v>1.7</v>
@@ -6105,7 +6126,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6192,10 +6213,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT27">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU27">
         <v>1</v>
@@ -6296,7 +6317,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6383,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="AS28">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT28">
         <v>1.9</v>
@@ -6487,7 +6508,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6577,7 +6598,7 @@
         <v>0.9</v>
       </c>
       <c r="AT29">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU29">
         <v>0.83</v>
@@ -6678,7 +6699,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6765,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT30">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU30">
         <v>1.02</v>
@@ -6869,7 +6890,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6959,7 +6980,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU31">
         <v>0.9</v>
@@ -7150,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU32">
         <v>0.9399999999999999</v>
@@ -7338,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT33">
         <v>0.7</v>
@@ -7442,7 +7463,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7633,7 +7654,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7720,10 +7741,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>1.49</v>
@@ -7824,7 +7845,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -7911,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT36">
         <v>2</v>
@@ -8105,7 +8126,7 @@
         <v>2.4</v>
       </c>
       <c r="AT37">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU37">
         <v>1.83</v>
@@ -8206,7 +8227,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8296,7 +8317,7 @@
         <v>1.7</v>
       </c>
       <c r="AT38">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU38">
         <v>1.63</v>
@@ -8484,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT39">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU39">
         <v>1.21</v>
@@ -8588,7 +8609,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8675,7 +8696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT40">
         <v>1.7</v>
@@ -8779,7 +8800,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8866,7 +8887,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT41">
         <v>1.7</v>
@@ -9057,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT42">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9352,7 +9373,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9439,7 +9460,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT44">
         <v>1.6</v>
@@ -9543,7 +9564,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9633,7 +9654,7 @@
         <v>0.9</v>
       </c>
       <c r="AT45">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU45">
         <v>1.09</v>
@@ -9734,7 +9755,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9925,7 +9946,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10015,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU47">
         <v>1.04</v>
@@ -10116,7 +10137,7 @@
         <v>87</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10203,7 +10224,7 @@
         <v>1.67</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10307,7 +10328,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10394,10 +10415,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT49">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU49">
         <v>1.4</v>
@@ -10585,10 +10606,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT50">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU50">
         <v>1.09</v>
@@ -10689,7 +10710,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10776,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT51">
         <v>1.7</v>
@@ -10967,10 +10988,10 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU52">
         <v>1.62</v>
@@ -11161,7 +11182,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU53">
         <v>1.63</v>
@@ -11453,7 +11474,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11644,7 +11665,7 @@
         <v>87</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11835,7 +11856,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12026,7 +12047,7 @@
         <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12217,7 +12238,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12408,7 +12429,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12686,10 +12707,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU61">
         <v>1.27</v>
@@ -12790,7 +12811,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12877,10 +12898,10 @@
         <v>2.25</v>
       </c>
       <c r="AS62">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT62">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU62">
         <v>1.1</v>
@@ -12981,7 +13002,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13068,10 +13089,10 @@
         <v>0.25</v>
       </c>
       <c r="AS63">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT63">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU63">
         <v>1.43</v>
@@ -13172,7 +13193,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>8</v>
@@ -13259,10 +13280,10 @@
         <v>0.2</v>
       </c>
       <c r="AS64">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT64">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU64">
         <v>1.17</v>
@@ -13450,10 +13471,10 @@
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT65">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU65">
         <v>1.69</v>
@@ -13554,7 +13575,7 @@
         <v>112</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13641,10 +13662,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13936,7 +13957,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14023,7 +14044,7 @@
         <v>1.8</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT68">
         <v>1.9</v>
@@ -14127,7 +14148,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -14217,7 +14238,7 @@
         <v>1.2</v>
       </c>
       <c r="AT69">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU69">
         <v>1.17</v>
@@ -14405,10 +14426,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT70">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU70">
         <v>1.11</v>
@@ -14509,7 +14530,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14596,7 +14617,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT71">
         <v>1.6</v>
@@ -14700,7 +14721,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14790,7 +14811,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU72">
         <v>1.58</v>
@@ -15082,7 +15103,7 @@
         <v>87</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15169,7 +15190,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT74">
         <v>1.7</v>
@@ -15273,7 +15294,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15363,7 +15384,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU75">
         <v>0.9399999999999999</v>
@@ -15464,7 +15485,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15551,7 +15572,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT76">
         <v>0.7</v>
@@ -15745,7 +15766,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU77">
         <v>0.9399999999999999</v>
@@ -15846,7 +15867,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15933,10 +15954,10 @@
         <v>1.67</v>
       </c>
       <c r="AS78">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU78">
         <v>1.42</v>
@@ -16124,10 +16145,10 @@
         <v>0.67</v>
       </c>
       <c r="AS79">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU79">
         <v>1.69</v>
@@ -16228,7 +16249,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16419,7 +16440,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16506,10 +16527,10 @@
         <v>1.29</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT81">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU81">
         <v>1.31</v>
@@ -16700,7 +16721,7 @@
         <v>2.4</v>
       </c>
       <c r="AT82">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU82">
         <v>1.87</v>
@@ -16801,7 +16822,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16992,7 +17013,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17079,7 +17100,7 @@
         <v>1.67</v>
       </c>
       <c r="AS84">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT84">
         <v>1.6</v>
@@ -17183,7 +17204,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17270,10 +17291,10 @@
         <v>0.71</v>
       </c>
       <c r="AS85">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT85">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU85">
         <v>1.7</v>
@@ -17374,7 +17395,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17461,10 +17482,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT86">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU86">
         <v>1.15</v>
@@ -17565,7 +17586,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17756,7 +17777,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17846,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU88">
         <v>0.93</v>
@@ -18034,7 +18055,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT89">
         <v>2</v>
@@ -18228,7 +18249,7 @@
         <v>1.2</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU90">
         <v>1.14</v>
@@ -18416,7 +18437,7 @@
         <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
         <v>1.9</v>
@@ -18610,7 +18631,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU92">
         <v>1.21</v>
@@ -18902,7 +18923,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19284,7 +19305,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19371,10 +19392,10 @@
         <v>2.57</v>
       </c>
       <c r="AS96">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT96">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU96">
         <v>1.27</v>
@@ -19475,7 +19496,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19562,7 +19583,7 @@
         <v>1.86</v>
       </c>
       <c r="AS97">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
         <v>2</v>
@@ -19753,7 +19774,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT98">
         <v>1.7</v>
@@ -19947,7 +19968,7 @@
         <v>2.4</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU99">
         <v>1.86</v>
@@ -20048,7 +20069,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20135,10 +20156,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU100">
         <v>1.17</v>
@@ -20239,7 +20260,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -20329,7 +20350,7 @@
         <v>0.9</v>
       </c>
       <c r="AT101">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU101">
         <v>1.07</v>
@@ -20430,7 +20451,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20517,7 +20538,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT102">
         <v>1.9</v>
@@ -20621,7 +20642,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20812,7 +20833,7 @@
         <v>87</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20899,7 +20920,7 @@
         <v>1.63</v>
       </c>
       <c r="AS104">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT104">
         <v>1.6</v>
@@ -21003,7 +21024,7 @@
         <v>143</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>2</v>
@@ -21194,7 +21215,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21385,7 +21406,7 @@
         <v>112</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21475,7 +21496,7 @@
         <v>1.2</v>
       </c>
       <c r="AT107">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU107">
         <v>1.22</v>
@@ -21666,7 +21687,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU108">
         <v>0.96</v>
@@ -21854,7 +21875,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT109">
         <v>0.7</v>
@@ -22045,10 +22066,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT110">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU110">
         <v>1.4</v>
@@ -22239,7 +22260,7 @@
         <v>1.7</v>
       </c>
       <c r="AT111">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU111">
         <v>1.46</v>
@@ -22340,7 +22361,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22427,7 +22448,7 @@
         <v>1.56</v>
       </c>
       <c r="AS112">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT112">
         <v>1.7</v>
@@ -22531,7 +22552,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22618,7 +22639,7 @@
         <v>1.56</v>
       </c>
       <c r="AS113">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AT113">
         <v>1.7</v>
@@ -22809,10 +22830,10 @@
         <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT114">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU114">
         <v>1.09</v>
@@ -23003,7 +23024,7 @@
         <v>2.4</v>
       </c>
       <c r="AT115">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU115">
         <v>1.85</v>
@@ -23104,7 +23125,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23194,7 +23215,7 @@
         <v>0.9</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU116">
         <v>1.17</v>
@@ -23295,7 +23316,7 @@
         <v>162</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23486,7 +23507,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -23677,7 +23698,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23955,7 +23976,7 @@
         <v>0.78</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
         <v>0.7</v>
@@ -24059,7 +24080,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24146,10 +24167,10 @@
         <v>2.67</v>
       </c>
       <c r="AS121">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT121">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AU121">
         <v>1.63</v>
@@ -24201,6 +24222,1152 @@
       </c>
       <c r="BK121">
         <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>3045640</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>66</v>
+      </c>
+      <c r="H122" t="s">
+        <v>65</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>87</v>
+      </c>
+      <c r="P122" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>3.75</v>
+      </c>
+      <c r="AD122">
+        <v>4</v>
+      </c>
+      <c r="AE122">
+        <v>1.83</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>1.68</v>
+      </c>
+      <c r="AK122">
+        <v>2.15</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>1.8</v>
+      </c>
+      <c r="AR122">
+        <v>2.7</v>
+      </c>
+      <c r="AS122">
+        <v>1.64</v>
+      </c>
+      <c r="AT122">
+        <v>2.73</v>
+      </c>
+      <c r="AU122">
+        <v>1.39</v>
+      </c>
+      <c r="AV122">
+        <v>1.31</v>
+      </c>
+      <c r="AW122">
+        <v>2.7</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>3</v>
+      </c>
+      <c r="BG122">
+        <v>6</v>
+      </c>
+      <c r="BH122">
+        <v>5</v>
+      </c>
+      <c r="BI122">
+        <v>11</v>
+      </c>
+      <c r="BJ122">
+        <v>8</v>
+      </c>
+      <c r="BK122">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>3045641</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H123" t="s">
+        <v>68</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>87</v>
+      </c>
+      <c r="P123" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q123">
+        <v>9</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>14</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>1.81</v>
+      </c>
+      <c r="AD123">
+        <v>3.65</v>
+      </c>
+      <c r="AE123">
+        <v>3.65</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>1.48</v>
+      </c>
+      <c r="AK123">
+        <v>2.35</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>0.4</v>
+      </c>
+      <c r="AR123">
+        <v>0.6</v>
+      </c>
+      <c r="AS123">
+        <v>0.36</v>
+      </c>
+      <c r="AT123">
+        <v>0.82</v>
+      </c>
+      <c r="AU123">
+        <v>1.11</v>
+      </c>
+      <c r="AV123">
+        <v>0.92</v>
+      </c>
+      <c r="AW123">
+        <v>2.03</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>4</v>
+      </c>
+      <c r="BH123">
+        <v>4</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>8</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>3045642</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>166</v>
+      </c>
+      <c r="P124" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q124">
+        <v>8</v>
+      </c>
+      <c r="R124">
+        <v>3</v>
+      </c>
+      <c r="S124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>1.78</v>
+      </c>
+      <c r="AD124">
+        <v>3.8</v>
+      </c>
+      <c r="AE124">
+        <v>3.65</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>1.47</v>
+      </c>
+      <c r="AK124">
+        <v>2.39</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
+      <c r="AQ124">
+        <v>2.2</v>
+      </c>
+      <c r="AR124">
+        <v>1.5</v>
+      </c>
+      <c r="AS124">
+        <v>2.27</v>
+      </c>
+      <c r="AT124">
+        <v>1.36</v>
+      </c>
+      <c r="AU124">
+        <v>1.61</v>
+      </c>
+      <c r="AV124">
+        <v>1.13</v>
+      </c>
+      <c r="AW124">
+        <v>2.74</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>6</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>9</v>
+      </c>
+      <c r="BI124">
+        <v>6</v>
+      </c>
+      <c r="BJ124">
+        <v>15</v>
+      </c>
+      <c r="BK124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>3045643</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>69</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>167</v>
+      </c>
+      <c r="P125" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q125">
+        <v>6</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>1.85</v>
+      </c>
+      <c r="AD125">
+        <v>4</v>
+      </c>
+      <c r="AE125">
+        <v>3.75</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>2</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>0</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>0.7</v>
+      </c>
+      <c r="AS125">
+        <v>1.18</v>
+      </c>
+      <c r="AT125">
+        <v>0.64</v>
+      </c>
+      <c r="AU125">
+        <v>1.24</v>
+      </c>
+      <c r="AV125">
+        <v>1.02</v>
+      </c>
+      <c r="AW125">
+        <v>2.26</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>7</v>
+      </c>
+      <c r="BG125">
+        <v>7</v>
+      </c>
+      <c r="BH125">
+        <v>1</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>8</v>
+      </c>
+      <c r="BK125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>3045644</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>70</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>168</v>
+      </c>
+      <c r="P126" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>6</v>
+      </c>
+      <c r="S126">
+        <v>10</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>1.65</v>
+      </c>
+      <c r="AD126">
+        <v>3.85</v>
+      </c>
+      <c r="AE126">
+        <v>4.3</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>1.51</v>
+      </c>
+      <c r="AK126">
+        <v>2.28</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>1.3</v>
+      </c>
+      <c r="AR126">
+        <v>1.6</v>
+      </c>
+      <c r="AS126">
+        <v>1.45</v>
+      </c>
+      <c r="AT126">
+        <v>1.45</v>
+      </c>
+      <c r="AU126">
+        <v>1.62</v>
+      </c>
+      <c r="AV126">
+        <v>1.19</v>
+      </c>
+      <c r="AW126">
+        <v>2.81</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>7</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>9</v>
+      </c>
+      <c r="BI126">
+        <v>1</v>
+      </c>
+      <c r="BJ126">
+        <v>16</v>
+      </c>
+      <c r="BK126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>3045645</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>71</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>169</v>
+      </c>
+      <c r="P127" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>2.04</v>
+      </c>
+      <c r="AD127">
+        <v>3.4</v>
+      </c>
+      <c r="AE127">
+        <v>3.15</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>1.76</v>
+      </c>
+      <c r="AK127">
+        <v>1.88</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>0.9</v>
+      </c>
+      <c r="AR127">
+        <v>0.5</v>
+      </c>
+      <c r="AS127">
+        <v>0.82</v>
+      </c>
+      <c r="AT127">
+        <v>0.73</v>
+      </c>
+      <c r="AU127">
+        <v>1.04</v>
+      </c>
+      <c r="AV127">
+        <v>0.96</v>
+      </c>
+      <c r="AW127">
+        <v>2</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>4</v>
+      </c>
+      <c r="BH127">
+        <v>1</v>
+      </c>
+      <c r="BI127">
+        <v>4</v>
+      </c>
+      <c r="BJ127">
+        <v>5</v>
+      </c>
+      <c r="BK127">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT4" t="n">
         <v>2.09</v>
@@ -1512,7 +1512,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT6" t="n">
         <v>0.73</v>
@@ -1918,7 +1918,7 @@
         <v>1.45</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.91</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.55</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU15" t="n">
         <v>1.02</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>1.21</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.36</v>
@@ -4354,7 +4354,7 @@
         <v>1.45</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT22" t="n">
         <v>0.73</v>
@@ -5166,7 +5166,7 @@
         <v>1.64</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU23" t="n">
         <v>1.02</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1</v>
@@ -6178,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU28" t="n">
         <v>1.12</v>
@@ -6384,7 +6384,7 @@
         <v>0.91</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>0.83</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT30" t="n">
         <v>1.36</v>
@@ -6790,7 +6790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
         <v>0.9</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9399999999999999</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT35" t="n">
         <v>1.36</v>
@@ -8008,7 +8008,7 @@
         <v>2.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.83</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.63</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.64</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -8817,7 +8817,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT41" t="n">
         <v>1.55</v>
@@ -9023,7 +9023,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9632,7 +9632,7 @@
         <v>0.91</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.09</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT46" t="n">
         <v>1.36</v>
@@ -10038,7 +10038,7 @@
         <v>1.64</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU47" t="n">
         <v>0.84</v>
@@ -10238,7 +10238,7 @@
         <v>1.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT48" t="n">
         <v>2.09</v>
@@ -10444,7 +10444,7 @@
         <v>1.64</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.4</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT50" t="n">
         <v>0.64</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.55</v>
@@ -11050,10 +11050,10 @@
         <v>0.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11253,10 +11253,10 @@
         <v>1.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.62</v>
@@ -11459,7 +11459,7 @@
         <v>2.27</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU54" t="n">
         <v>1.87</v>
@@ -11662,7 +11662,7 @@
         <v>1.09</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU55" t="n">
         <v>1.25</v>
@@ -11865,7 +11865,7 @@
         <v>2.27</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.95</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT58" t="n">
         <v>1.55</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT60" t="n">
         <v>2.09</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.27</v>
@@ -13283,10 +13283,10 @@
         <v>2.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU63" t="n">
         <v>1.1</v>
@@ -13486,10 +13486,10 @@
         <v>0.2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -13689,10 +13689,10 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14098,7 +14098,7 @@
         <v>1.09</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -14301,7 +14301,7 @@
         <v>0.91</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -14501,10 +14501,10 @@
         <v>1.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.26</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>0.64</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT71" t="n">
         <v>1.55</v>
@@ -15110,10 +15110,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.58</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>0.9399999999999999</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT76" t="n">
         <v>0.73</v>
@@ -16128,7 +16128,7 @@
         <v>1.64</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU77" t="n">
         <v>0.9399999999999999</v>
@@ -16940,7 +16940,7 @@
         <v>1.64</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17140,10 +17140,10 @@
         <v>1.29</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
         <v>0.73</v>
@@ -17749,10 +17749,10 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.7</v>
@@ -17952,10 +17952,10 @@
         <v>0.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>0.93</v>
@@ -18155,10 +18155,10 @@
         <v>2.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU87" t="n">
         <v>1.15</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>2.09</v>
@@ -18970,7 +18970,7 @@
         <v>1.45</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU91" t="n">
         <v>1.74</v>
@@ -19170,10 +19170,10 @@
         <v>1.57</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU92" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>1.09</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.21</v>
@@ -19779,7 +19779,7 @@
         <v>1.43</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT95" t="n">
         <v>1.55</v>
@@ -19982,10 +19982,10 @@
         <v>2.57</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20388,10 +20388,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU98" t="n">
         <v>1.77</v>
@@ -20594,7 +20594,7 @@
         <v>2.27</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.86</v>
@@ -20794,10 +20794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.17</v>
@@ -21200,10 +21200,10 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU102" t="n">
         <v>1.13</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT103" t="n">
         <v>1.55</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT104" t="n">
         <v>2.09</v>
@@ -21812,7 +21812,7 @@
         <v>0.91</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU105" t="n">
         <v>1.11</v>
@@ -22012,7 +22012,7 @@
         <v>1.63</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT106" t="n">
         <v>1.55</v>
@@ -22421,7 +22421,7 @@
         <v>1.09</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.22</v>
@@ -22827,7 +22827,7 @@
         <v>1.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.4</v>
@@ -23027,7 +23027,7 @@
         <v>0.78</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT111" t="n">
         <v>0.64</v>
@@ -23230,7 +23230,7 @@
         <v>1.56</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT112" t="n">
         <v>1.55</v>
@@ -23433,10 +23433,10 @@
         <v>1.56</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU113" t="n">
         <v>1.14</v>
@@ -23636,10 +23636,10 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU114" t="n">
         <v>1.09</v>
@@ -23842,7 +23842,7 @@
         <v>2.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24042,7 +24042,7 @@
         <v>1.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT116" t="n">
         <v>1.55</v>
@@ -24651,7 +24651,7 @@
         <v>0.78</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT119" t="n">
         <v>0.73</v>
@@ -24857,7 +24857,7 @@
         <v>1.09</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU120" t="n">
         <v>1.18</v>
@@ -25060,7 +25060,7 @@
         <v>1.45</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU121" t="n">
         <v>1.63</v>
@@ -25263,7 +25263,7 @@
         <v>1.64</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU122" t="n">
         <v>1.39</v>
@@ -25463,10 +25463,10 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>1.11</v>
@@ -25666,7 +25666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT124" t="n">
         <v>1.36</v>
@@ -25869,7 +25869,7 @@
         <v>0.7</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT125" t="n">
         <v>0.64</v>
@@ -26075,7 +26075,7 @@
         <v>1.45</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.62</v>
@@ -26275,10 +26275,10 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.04</v>
@@ -26681,10 +26681,10 @@
         <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU129" t="n">
         <v>1.03</v>
@@ -27290,10 +27290,10 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27548,6 +27548,1224 @@
       </c>
       <c r="BK133" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5690831</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45016.60416666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>4</v>
+      </c>
+      <c r="R134" t="n">
+        <v>5</v>
+      </c>
+      <c r="S134" t="n">
+        <v>9</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5690832</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45017.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>4</v>
+      </c>
+      <c r="R135" t="n">
+        <v>3</v>
+      </c>
+      <c r="S135" t="n">
+        <v>7</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5690833</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45017.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>2</v>
+      </c>
+      <c r="R136" t="n">
+        <v>8</v>
+      </c>
+      <c r="S136" t="n">
+        <v>10</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5690834</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45018.39583333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['58', '62']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['73', '90']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>5</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>9</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5690835</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45018.39583333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['16', '63', '69']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" t="n">
+        <v>5</v>
+      </c>
+      <c r="S138" t="n">
+        <v>8</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5690836</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45018.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['6', '45+1', '70']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>4</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>8</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>1.33</v>
@@ -1715,7 +1715,7 @@
         <v>0.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT14" t="n">
         <v>2.09</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT18" t="n">
         <v>1.55</v>
@@ -4963,7 +4963,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -5369,7 +5369,7 @@
         <v>2.27</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU24" t="n">
         <v>1.88</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>2.75</v>
@@ -7196,7 +7196,7 @@
         <v>1.64</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.07</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU39" t="n">
         <v>1.21</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU43" t="n">
         <v>1.21</v>
@@ -9429,7 +9429,7 @@
         <v>1.45</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU44" t="n">
         <v>1.48</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT45" t="n">
         <v>2.75</v>
@@ -10035,7 +10035,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.75</v>
@@ -10647,7 +10647,7 @@
         <v>0.58</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU50" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT55" t="n">
         <v>1.42</v>
@@ -12065,10 +12065,10 @@
         <v>1.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU57" t="n">
         <v>0.96</v>
@@ -12471,10 +12471,10 @@
         <v>0.25</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.08</v>
@@ -12880,7 +12880,7 @@
         <v>1.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU61" t="n">
         <v>1.43</v>
@@ -14095,7 +14095,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT68" t="n">
         <v>1.42</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU70" t="n">
         <v>1.11</v>
@@ -14910,7 +14910,7 @@
         <v>2.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU71" t="n">
         <v>1.76</v>
@@ -15925,7 +15925,7 @@
         <v>0.58</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT77" t="n">
         <v>0.67</v>
@@ -16534,7 +16534,7 @@
         <v>1.45</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>2.27</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU80" t="n">
         <v>1.87</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT81" t="n">
         <v>1.42</v>
@@ -17346,7 +17346,7 @@
         <v>1.64</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17549,7 +17549,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.44</v>
@@ -18358,7 +18358,7 @@
         <v>1.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT88" t="n">
         <v>1.55</v>
@@ -18764,7 +18764,7 @@
         <v>1.57</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT90" t="n">
         <v>1.36</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
         <v>0.97</v>
@@ -19576,7 +19576,7 @@
         <v>0.63</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT94" t="n">
         <v>0.67</v>
@@ -19782,7 +19782,7 @@
         <v>1.75</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU95" t="n">
         <v>1.56</v>
@@ -20997,10 +20997,10 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU101" t="n">
         <v>1.07</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT105" t="n">
         <v>1.75</v>
@@ -22015,7 +22015,7 @@
         <v>1.08</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU106" t="n">
         <v>1.24</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT107" t="n">
         <v>1.36</v>
@@ -22418,7 +22418,7 @@
         <v>2.63</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT108" t="n">
         <v>2.75</v>
@@ -22624,7 +22624,7 @@
         <v>1.45</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.71</v>
@@ -23030,7 +23030,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU111" t="n">
         <v>1.46</v>
@@ -24045,7 +24045,7 @@
         <v>0.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU116" t="n">
         <v>1.02</v>
@@ -24245,7 +24245,7 @@
         <v>1.89</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT117" t="n">
         <v>2.09</v>
@@ -24448,7 +24448,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT118" t="n">
         <v>1.36</v>
@@ -24654,7 +24654,7 @@
         <v>1.08</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.29</v>
@@ -24854,7 +24854,7 @@
         <v>1.78</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.75</v>
@@ -25872,7 +25872,7 @@
         <v>1.08</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU125" t="n">
         <v>1.24</v>
@@ -26478,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT128" t="n">
         <v>2.09</v>
@@ -26884,7 +26884,7 @@
         <v>1.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
         <v>1.55</v>
@@ -27087,10 +27087,10 @@
         <v>1.6</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU131" t="n">
         <v>1.13</v>
@@ -27496,7 +27496,7 @@
         <v>2.27</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -28765,6 +28765,615 @@
         <v>11</v>
       </c>
       <c r="BK139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5690837</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>4</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['1', '19', '23', '90+1']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>9</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5690838</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45024.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['19', '63', '83']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6</v>
+      </c>
+      <c r="S141" t="n">
+        <v>8</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5690839</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45024.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>10</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK142" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.58</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -3339,7 +3339,7 @@
         <v>0.83</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU14" t="n">
         <v>1.08</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0.7</v>
@@ -4151,7 +4151,7 @@
         <v>1.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU18" t="n">
         <v>1.93</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
         <v>1.42</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT24" t="n">
         <v>1.42</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -6587,7 +6587,7 @@
         <v>0.58</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.02</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU34" t="n">
         <v>1.71</v>
@@ -7602,7 +7602,7 @@
         <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.49</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT37" t="n">
         <v>1.33</v>
@@ -8820,7 +8820,7 @@
         <v>0.58</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU41" t="n">
         <v>1.13</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT42" t="n">
         <v>0.67</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT44" t="n">
         <v>1.42</v>
@@ -9835,7 +9835,7 @@
         <v>0.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.04</v>
@@ -10241,7 +10241,7 @@
         <v>1.08</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU48" t="n">
         <v>1.4</v>
@@ -10441,7 +10441,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT54" t="n">
         <v>1.42</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT56" t="n">
         <v>1.75</v>
@@ -12271,7 +12271,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12677,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -12877,7 +12877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT61" t="n">
         <v>0.83</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.74</v>
@@ -15313,10 +15313,10 @@
         <v>2.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU73" t="n">
         <v>2.01</v>
@@ -15516,10 +15516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU74" t="n">
         <v>1.67</v>
@@ -16328,10 +16328,10 @@
         <v>1.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU78" t="n">
         <v>1.42</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT79" t="n">
         <v>0.83</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT80" t="n">
         <v>0.83</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT83" t="n">
         <v>1.42</v>
@@ -18361,7 +18361,7 @@
         <v>0.83</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU88" t="n">
         <v>1.09</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -18767,7 +18767,7 @@
         <v>1.25</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU90" t="n">
         <v>1.14</v>
@@ -18967,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT91" t="n">
         <v>1.75</v>
@@ -20185,10 +20185,10 @@
         <v>1.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -21406,7 +21406,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU103" t="n">
         <v>1.56</v>
@@ -21609,7 +21609,7 @@
         <v>0.92</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU104" t="n">
         <v>0.99</v>
@@ -22218,7 +22218,7 @@
         <v>1.75</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU107" t="n">
         <v>0.96</v>
@@ -22621,7 +22621,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT109" t="n">
         <v>0.67</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>2.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU112" t="n">
         <v>1.69</v>
@@ -23839,7 +23839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT115" t="n">
         <v>0.67</v>
@@ -24248,7 +24248,7 @@
         <v>1.75</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU117" t="n">
         <v>0.91</v>
@@ -24451,7 +24451,7 @@
         <v>0.83</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.17</v>
@@ -25057,7 +25057,7 @@
         <v>2.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT121" t="n">
         <v>2.75</v>
@@ -25260,7 +25260,7 @@
         <v>2.7</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT122" t="n">
         <v>2.75</v>
@@ -25669,7 +25669,7 @@
         <v>2.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU124" t="n">
         <v>1.61</v>
@@ -26072,7 +26072,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT126" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>1.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU128" t="n">
         <v>1.12</v>
@@ -26887,7 +26887,7 @@
         <v>1.75</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU130" t="n">
         <v>0.92</v>
@@ -27493,7 +27493,7 @@
         <v>0.7</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT133" t="n">
         <v>0.67</v>
@@ -29033,13 +29033,13 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R141" t="n">
         <v>6</v>
       </c>
       <c r="S141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T141" t="n">
         <v>0</v>
@@ -29159,19 +29159,19 @@
         <v>4</v>
       </c>
       <c r="BG141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI141" t="n">
         <v>6</v>
       </c>
       <c r="BJ141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -29375,6 +29375,615 @@
       </c>
       <c r="BK142" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5690841</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45025.39583333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['4', '70', '90+4']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>7</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5690840</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45025.39583333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3</v>
+      </c>
+      <c r="M144" t="n">
+        <v>3</v>
+      </c>
+      <c r="N144" t="n">
+        <v>6</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['22', '39', '90+2']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['47', '77', '80']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>7</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5690842</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45025.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['71', '79']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>5</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT14" t="n">
         <v>1.92</v>
@@ -4557,7 +4557,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU29" t="n">
         <v>0.83</v>
@@ -8008,7 +8008,7 @@
         <v>2.17</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU37" t="n">
         <v>1.83</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT45" t="n">
         <v>2.75</v>
@@ -10444,7 +10444,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU49" t="n">
         <v>1.4</v>
@@ -12471,7 +12471,7 @@
         <v>0.25</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT59" t="n">
         <v>0.67</v>
@@ -13692,7 +13692,7 @@
         <v>2.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT68" t="n">
         <v>1.42</v>
@@ -15722,7 +15722,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU75" t="n">
         <v>0.9399999999999999</v>
@@ -17143,7 +17143,7 @@
         <v>1.08</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.31</v>
@@ -18358,7 +18358,7 @@
         <v>1.86</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT88" t="n">
         <v>1.42</v>
@@ -20797,7 +20797,7 @@
         <v>0.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU100" t="n">
         <v>1.17</v>
@@ -20997,7 +20997,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT101" t="n">
         <v>0.83</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT105" t="n">
         <v>1.75</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU114" t="n">
         <v>1.09</v>
@@ -24448,7 +24448,7 @@
         <v>1.33</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT118" t="n">
         <v>1.33</v>
@@ -26075,7 +26075,7 @@
         <v>1.58</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU126" t="n">
         <v>1.62</v>
@@ -27087,7 +27087,7 @@
         <v>1.6</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT131" t="n">
         <v>1.42</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU136" t="n">
         <v>1.02</v>
@@ -29117,7 +29117,7 @@
         <v>0.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT141" t="n">
         <v>0.83</v>
@@ -29984,6 +29984,209 @@
       </c>
       <c r="BK145" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5690843</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45030.60416666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Ried</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Wattens</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.58</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT5" t="n">
         <v>1.31</v>
@@ -1715,7 +1715,7 @@
         <v>0.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.42</v>
@@ -3339,7 +3339,7 @@
         <v>0.85</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>1.08</v>
@@ -3542,7 +3542,7 @@
         <v>0.58</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU15" t="n">
         <v>1.02</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0.7</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>0.67</v>
@@ -4963,7 +4963,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU24" t="n">
         <v>1.88</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT25" t="n">
         <v>0.83</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT26" t="n">
         <v>1.42</v>
@@ -6181,7 +6181,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU28" t="n">
         <v>1.12</v>
@@ -6587,7 +6587,7 @@
         <v>0.58</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU30" t="n">
         <v>1.02</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT31" t="n">
         <v>2.75</v>
@@ -7196,7 +7196,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU33" t="n">
         <v>1.07</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.71</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU35" t="n">
         <v>1.49</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU36" t="n">
         <v>1.3</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT37" t="n">
         <v>1.31</v>
@@ -9226,7 +9226,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU43" t="n">
         <v>1.21</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU44" t="n">
         <v>1.48</v>
@@ -9835,7 +9835,7 @@
         <v>0.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU46" t="n">
         <v>1.04</v>
@@ -10035,10 +10035,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU47" t="n">
         <v>0.84</v>
@@ -10238,10 +10238,10 @@
         <v>1.67</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT54" t="n">
         <v>1.42</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU56" t="n">
         <v>1.95</v>
@@ -12065,10 +12065,10 @@
         <v>1.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU57" t="n">
         <v>0.96</v>
@@ -12474,7 +12474,7 @@
         <v>0.85</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU59" t="n">
         <v>1.08</v>
@@ -12677,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.64</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU66" t="n">
         <v>1.74</v>
@@ -14501,10 +14501,10 @@
         <v>1.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU69" t="n">
         <v>1.26</v>
@@ -14910,7 +14910,7 @@
         <v>2.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU71" t="n">
         <v>1.76</v>
@@ -15313,10 +15313,10 @@
         <v>2.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>2.01</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT74" t="n">
         <v>1.42</v>
@@ -15925,7 +15925,7 @@
         <v>0.58</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU76" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>0.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT77" t="n">
         <v>0.67</v>
@@ -16331,7 +16331,7 @@
         <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU78" t="n">
         <v>1.42</v>
@@ -16531,7 +16531,7 @@
         <v>0.67</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT79" t="n">
         <v>0.83</v>
@@ -16734,7 +16734,7 @@
         <v>0.57</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT80" t="n">
         <v>0.83</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT81" t="n">
         <v>1.42</v>
@@ -17140,7 +17140,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>1.31</v>
@@ -17346,7 +17346,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17549,7 +17549,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84" t="n">
         <v>1.44</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -18767,7 +18767,7 @@
         <v>1.25</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.14</v>
@@ -18967,10 +18967,10 @@
         <v>2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU91" t="n">
         <v>1.74</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU93" t="n">
         <v>0.97</v>
@@ -19782,7 +19782,7 @@
         <v>1.75</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU95" t="n">
         <v>1.56</v>
@@ -19982,7 +19982,7 @@
         <v>2.57</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>2.75</v>
@@ -20188,7 +20188,7 @@
         <v>1.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU102" t="n">
         <v>1.13</v>
@@ -21609,7 +21609,7 @@
         <v>0.92</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU104" t="n">
         <v>0.99</v>
@@ -21812,7 +21812,7 @@
         <v>0.85</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU105" t="n">
         <v>1.11</v>
@@ -22012,10 +22012,10 @@
         <v>1.63</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU106" t="n">
         <v>1.24</v>
@@ -22215,10 +22215,10 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU107" t="n">
         <v>0.96</v>
@@ -22621,10 +22621,10 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU109" t="n">
         <v>1.71</v>
@@ -23839,7 +23839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT115" t="n">
         <v>0.67</v>
@@ -24045,7 +24045,7 @@
         <v>0.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU116" t="n">
         <v>1.02</v>
@@ -24245,10 +24245,10 @@
         <v>1.89</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>0.91</v>
@@ -24451,7 +24451,7 @@
         <v>0.85</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU118" t="n">
         <v>1.17</v>
@@ -24651,10 +24651,10 @@
         <v>0.78</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU119" t="n">
         <v>1.29</v>
@@ -24857,7 +24857,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU120" t="n">
         <v>1.18</v>
@@ -25057,7 +25057,7 @@
         <v>2.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT121" t="n">
         <v>2.75</v>
@@ -25669,7 +25669,7 @@
         <v>2.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU124" t="n">
         <v>1.61</v>
@@ -25869,7 +25869,7 @@
         <v>0.7</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT125" t="n">
         <v>0.83</v>
@@ -26072,7 +26072,7 @@
         <v>1.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT126" t="n">
         <v>1.31</v>
@@ -26481,7 +26481,7 @@
         <v>1.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU128" t="n">
         <v>1.12</v>
@@ -26684,7 +26684,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU129" t="n">
         <v>1.03</v>
@@ -26884,7 +26884,7 @@
         <v>1.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT130" t="n">
         <v>1.42</v>
@@ -27090,7 +27090,7 @@
         <v>0.85</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU131" t="n">
         <v>1.13</v>
@@ -27493,10 +27493,10 @@
         <v>0.7</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -28308,7 +28308,7 @@
         <v>1.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU137" t="n">
         <v>1.41</v>
@@ -28508,7 +28508,7 @@
         <v>2.73</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT138" t="n">
         <v>2.75</v>
@@ -28917,7 +28917,7 @@
         <v>1.25</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU140" t="n">
         <v>1.12</v>
@@ -29320,10 +29320,10 @@
         <v>0.73</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU142" t="n">
         <v>0.97</v>
@@ -29523,7 +29523,7 @@
         <v>1.55</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT143" t="n">
         <v>1.42</v>
@@ -29726,10 +29726,10 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU144" t="n">
         <v>1.85</v>
@@ -29932,7 +29932,7 @@
         <v>1.75</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30187,6 +30187,1021 @@
       </c>
       <c r="BK146" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5690844</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45031.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Rheindorf Altach</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['58', '60']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['10', '33']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>3</v>
+      </c>
+      <c r="R147" t="n">
+        <v>5</v>
+      </c>
+      <c r="S147" t="n">
+        <v>8</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5690845</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45031.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['47', '71', '80']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R148" t="n">
+        <v>10</v>
+      </c>
+      <c r="S148" t="n">
+        <v>12</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5690846</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45032.39583333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>LASK Linz</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>10</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5690847</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45032.39583333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['63', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>3</v>
+      </c>
+      <c r="R150" t="n">
+        <v>10</v>
+      </c>
+      <c r="S150" t="n">
+        <v>13</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5690848</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Austria Bundesliga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45032.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Rapid Wien</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Austria Wien</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3</v>
+      </c>
+      <c r="N151" t="n">
+        <v>6</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['15', '43', '83']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['28', '31', '78']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>7</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
